--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_ynyn_pf_sc_results_bus.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_ynyn_pf_sc_results_bus.xlsx
@@ -23,22 +23,22 @@
     <sheet name="LL_min_10" sheetId="14" r:id="rId14"/>
     <sheet name="LL_min_fault_6" sheetId="15" r:id="rId15"/>
     <sheet name="LL_min_fault_10" sheetId="16" r:id="rId16"/>
-    <sheet name="LLG_max_6" sheetId="17" r:id="rId17"/>
-    <sheet name="LLG_max_10" sheetId="18" r:id="rId18"/>
-    <sheet name="LLG_max_fault_6" sheetId="19" r:id="rId19"/>
-    <sheet name="LLG_max_fault_10" sheetId="20" r:id="rId20"/>
-    <sheet name="LLG_min_6" sheetId="21" r:id="rId21"/>
-    <sheet name="LLG_min_10" sheetId="22" r:id="rId22"/>
-    <sheet name="LLG_min_fault_6" sheetId="23" r:id="rId23"/>
-    <sheet name="LLG_min_fault_10" sheetId="24" r:id="rId24"/>
-    <sheet name="LG_max_6" sheetId="25" r:id="rId25"/>
-    <sheet name="LG_max_10" sheetId="26" r:id="rId26"/>
-    <sheet name="LG_max_fault_6" sheetId="27" r:id="rId27"/>
-    <sheet name="LG_max_fault_10" sheetId="28" r:id="rId28"/>
-    <sheet name="LG_min_6" sheetId="29" r:id="rId29"/>
-    <sheet name="LG_min_10" sheetId="30" r:id="rId30"/>
-    <sheet name="LG_min_fault_6" sheetId="31" r:id="rId31"/>
-    <sheet name="LG_min_fault_10" sheetId="32" r:id="rId32"/>
+    <sheet name="LG_max_6" sheetId="17" r:id="rId17"/>
+    <sheet name="LG_max_10" sheetId="18" r:id="rId18"/>
+    <sheet name="LG_max_fault_6" sheetId="19" r:id="rId19"/>
+    <sheet name="LG_max_fault_10" sheetId="20" r:id="rId20"/>
+    <sheet name="LG_min_6" sheetId="21" r:id="rId21"/>
+    <sheet name="LG_min_10" sheetId="22" r:id="rId22"/>
+    <sheet name="LG_min_fault_6" sheetId="23" r:id="rId23"/>
+    <sheet name="LG_min_fault_10" sheetId="24" r:id="rId24"/>
+    <sheet name="LLG_max_6" sheetId="25" r:id="rId25"/>
+    <sheet name="LLG_max_10" sheetId="26" r:id="rId26"/>
+    <sheet name="LLG_max_fault_6" sheetId="27" r:id="rId27"/>
+    <sheet name="LLG_max_fault_10" sheetId="28" r:id="rId28"/>
+    <sheet name="LLG_min_6" sheetId="29" r:id="rId29"/>
+    <sheet name="LLG_min_10" sheetId="30" r:id="rId30"/>
+    <sheet name="LLG_min_fault_6" sheetId="31" r:id="rId31"/>
+    <sheet name="LLG_min_fault_10" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3282,58 +3282,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.263085436319229</v>
       </c>
       <c r="C2">
-        <v>5.254654037497586</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.257139832776042</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>334.2508172769597</v>
       </c>
       <c r="F2">
-        <v>333.7153515352344</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>333.8732207382828</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302728497187092</v>
+        <v>1.302728497187147</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.1359615531714</v>
       </c>
       <c r="J2">
-        <v>1.324394474185782</v>
+        <v>1.324394473163969</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.32439447410423</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563989</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6333325747224056</v>
+        <v>0.6343631080284402</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.100000023884803</v>
       </c>
       <c r="P2">
-        <v>0.6333325747384951</v>
+        <v>0.6340631546307569</v>
       </c>
       <c r="Q2">
-        <v>0.01573189450824681</v>
+        <v>60.1445365371062</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>-179.9842681045647</v>
+        <v>119.8710225215628</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3341,58 +3341,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.909418745469262</v>
       </c>
       <c r="C3">
-        <v>6.655742685060392</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.653268916077334</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>79.7830954528105</v>
       </c>
       <c r="F3">
-        <v>76.85389661753</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>76.82533199376438</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552853</v>
+        <v>0.04239312320553314</v>
       </c>
       <c r="I3">
-        <v>0.8920439864270003</v>
+        <v>0.8920439864268153</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063851</v>
+        <v>0.1077319053178677</v>
       </c>
       <c r="K3">
-        <v>2.308438694631208</v>
+        <v>2.308438694642952</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131877</v>
+        <v>0.1077319054132356</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694642831</v>
       </c>
       <c r="N3">
-        <v>0.4152961960350116</v>
+        <v>0.5711176213502599</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.100000023844381</v>
       </c>
       <c r="P3">
-        <v>0.4152961960482956</v>
+        <v>0.5713299700315976</v>
       </c>
       <c r="Q3">
-        <v>-0.02756566514285248</v>
+        <v>74.32950827093296</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S3">
-        <v>179.9724343335005</v>
+        <v>105.6645177901049</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3400,58 +3400,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.982869958781635</v>
       </c>
       <c r="C4">
-        <v>4.89108550853529</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.072304282888318</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>45.99022085699701</v>
       </c>
       <c r="F4">
-        <v>56.47739069964655</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>35.47591409516021</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.763767454829633</v>
+        <v>3.76376745482967</v>
       </c>
       <c r="I4">
-        <v>2.348036266670654</v>
+        <v>2.348036266670468</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570091</v>
+        <v>0.6277319162687921</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438697960034</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638716</v>
+        <v>0.6277319163640369</v>
       </c>
       <c r="M4">
-        <v>2.898438697960012</v>
+        <v>2.898438697959963</v>
       </c>
       <c r="N4">
-        <v>0.7584426162678322</v>
+        <v>0.5306392271699696</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.100000023848401</v>
       </c>
       <c r="P4">
-        <v>0.7584426162729176</v>
+        <v>0.844773692729857</v>
       </c>
       <c r="Q4">
-        <v>-11.00281462486177</v>
+        <v>41.78823137284841</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S4">
-        <v>168.9971853750447</v>
+        <v>117.9273743248247</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3459,58 +3459,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.965638532986287</v>
       </c>
       <c r="C5">
-        <v>3.99628359033844</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.675884889875203</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>34.24424410677519</v>
       </c>
       <c r="F5">
-        <v>46.14510813279966</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>30.89845722979801</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.24185727765917</v>
+        <v>6.241857277659228</v>
       </c>
       <c r="I5">
-        <v>3.316292621791288</v>
+        <v>3.316292621791102</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534733</v>
+        <v>0.9743985901653894</v>
       </c>
       <c r="K5">
-        <v>3.291772033553012</v>
+        <v>3.291772033564897</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603528</v>
+        <v>0.9743985902605997</v>
       </c>
       <c r="M5">
-        <v>3.291772033564909</v>
+        <v>3.291772033564859</v>
       </c>
       <c r="N5">
-        <v>0.8053397867753366</v>
+        <v>0.5977509891594077</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.100000023847591</v>
       </c>
       <c r="P5">
-        <v>0.8053397867791066</v>
+        <v>0.8927074845834405</v>
       </c>
       <c r="Q5">
-        <v>-8.424349188687852</v>
+        <v>35.86071255927416</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S5">
-        <v>171.5756508112737</v>
+        <v>122.865418409526</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3518,58 +3518,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.965638532986288</v>
       </c>
       <c r="C6">
-        <v>3.996283590338439</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.675884889875202</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>34.24424410677521</v>
       </c>
       <c r="F6">
-        <v>46.14510813279963</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>30.89845722979801</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.241857277659169</v>
+        <v>6.241857277659228</v>
       </c>
       <c r="I6">
-        <v>3.316292621791288</v>
+        <v>3.316292621791101</v>
       </c>
       <c r="J6">
-        <v>0.9743985902534743</v>
+        <v>0.9743985901653883</v>
       </c>
       <c r="K6">
-        <v>3.291772033553014</v>
+        <v>3.291772033564897</v>
       </c>
       <c r="L6">
-        <v>0.9743985902603555</v>
+        <v>0.9743985902605973</v>
       </c>
       <c r="M6">
-        <v>3.291772033564908</v>
+        <v>3.29177203356486</v>
       </c>
       <c r="N6">
-        <v>0.8053397867753366</v>
+        <v>0.5977509891594077</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.100000023847591</v>
       </c>
       <c r="P6">
-        <v>0.8053397867791066</v>
+        <v>0.8927074845834406</v>
       </c>
       <c r="Q6">
-        <v>-8.424349188687842</v>
+        <v>35.86071255927414</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S6">
-        <v>171.5756508112737</v>
+        <v>122.865418409526</v>
       </c>
     </row>
   </sheetData>
@@ -3649,58 +3649,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.263085436319229</v>
       </c>
       <c r="C2">
-        <v>5.254654037497586</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.257139832776042</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>334.2508172769597</v>
       </c>
       <c r="F2">
-        <v>333.7153515352344</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>333.8732207382828</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302728497187092</v>
+        <v>1.302728497187147</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.1359615531714</v>
       </c>
       <c r="J2">
-        <v>1.324394474185782</v>
+        <v>1.324394473163969</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.32439447410423</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563989</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6333325747224056</v>
+        <v>0.6343631080284402</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.100000023884803</v>
       </c>
       <c r="P2">
-        <v>0.6333325747384951</v>
+        <v>0.6340631546307569</v>
       </c>
       <c r="Q2">
-        <v>0.01573189450824681</v>
+        <v>60.1445365371062</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>-179.9842681045647</v>
+        <v>119.8710225215628</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3708,58 +3708,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.909418745469262</v>
       </c>
       <c r="C3">
-        <v>6.655742685060392</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.653268916077334</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>79.7830954528105</v>
       </c>
       <c r="F3">
-        <v>76.85389661753</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>76.82533199376438</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552853</v>
+        <v>0.04239312320553314</v>
       </c>
       <c r="I3">
-        <v>0.8920439864270003</v>
+        <v>0.8920439864268153</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063851</v>
+        <v>0.1077319053178677</v>
       </c>
       <c r="K3">
-        <v>2.308438694631208</v>
+        <v>2.308438694642952</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131877</v>
+        <v>0.1077319054132356</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694642831</v>
       </c>
       <c r="N3">
-        <v>0.4152961960350116</v>
+        <v>0.5711176213502599</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.100000023844381</v>
       </c>
       <c r="P3">
-        <v>0.4152961960482956</v>
+        <v>0.5713299700315976</v>
       </c>
       <c r="Q3">
-        <v>-0.02756566514285248</v>
+        <v>74.32950827093296</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S3">
-        <v>179.9724343335005</v>
+        <v>105.6645177901049</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3767,58 +3767,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.982869958781635</v>
       </c>
       <c r="C4">
-        <v>4.89108550853529</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.072304282888318</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>45.99022085699701</v>
       </c>
       <c r="F4">
-        <v>56.47739069964655</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>35.47591409516021</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.763767454829633</v>
+        <v>3.76376745482967</v>
       </c>
       <c r="I4">
-        <v>2.348036266670654</v>
+        <v>2.348036266670468</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570091</v>
+        <v>0.6277319162687921</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438697960034</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638716</v>
+        <v>0.6277319163640369</v>
       </c>
       <c r="M4">
-        <v>2.898438697960012</v>
+        <v>2.898438697959963</v>
       </c>
       <c r="N4">
-        <v>0.7584426162678322</v>
+        <v>0.5306392271699696</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.100000023848401</v>
       </c>
       <c r="P4">
-        <v>0.7584426162729176</v>
+        <v>0.844773692729857</v>
       </c>
       <c r="Q4">
-        <v>-11.00281462486177</v>
+        <v>41.78823137284841</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S4">
-        <v>168.9971853750447</v>
+        <v>117.9273743248247</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3826,58 +3826,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.965638532986287</v>
       </c>
       <c r="C5">
-        <v>3.99628359033844</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.675884889875203</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>34.24424410677519</v>
       </c>
       <c r="F5">
-        <v>46.14510813279966</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>30.89845722979801</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.24185727765917</v>
+        <v>6.241857277659228</v>
       </c>
       <c r="I5">
-        <v>3.316292621791288</v>
+        <v>3.316292621791102</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534733</v>
+        <v>0.9743985901653894</v>
       </c>
       <c r="K5">
-        <v>3.291772033553012</v>
+        <v>3.291772033564897</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603528</v>
+        <v>0.9743985902605997</v>
       </c>
       <c r="M5">
-        <v>3.291772033564909</v>
+        <v>3.291772033564859</v>
       </c>
       <c r="N5">
-        <v>0.8053397867753366</v>
+        <v>0.5977509891594077</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.100000023847591</v>
       </c>
       <c r="P5">
-        <v>0.8053397867791066</v>
+        <v>0.8927074845834405</v>
       </c>
       <c r="Q5">
-        <v>-8.424349188687852</v>
+        <v>35.86071255927416</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S5">
-        <v>171.5756508112737</v>
+        <v>122.865418409526</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3885,58 +3885,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.965638532986288</v>
       </c>
       <c r="C6">
-        <v>3.996283590338439</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.675884889875202</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>34.24424410677521</v>
       </c>
       <c r="F6">
-        <v>46.14510813279963</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>30.89845722979801</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.241857277659169</v>
+        <v>6.241857277659228</v>
       </c>
       <c r="I6">
-        <v>3.316292621791288</v>
+        <v>3.316292621791101</v>
       </c>
       <c r="J6">
-        <v>0.9743985902534743</v>
+        <v>0.9743985901653883</v>
       </c>
       <c r="K6">
-        <v>3.291772033553014</v>
+        <v>3.291772033564897</v>
       </c>
       <c r="L6">
-        <v>0.9743985902603555</v>
+        <v>0.9743985902605973</v>
       </c>
       <c r="M6">
-        <v>3.291772033564908</v>
+        <v>3.29177203356486</v>
       </c>
       <c r="N6">
-        <v>0.8053397867753366</v>
+        <v>0.5977509891594077</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.100000023847591</v>
       </c>
       <c r="P6">
-        <v>0.8053397867791066</v>
+        <v>0.8927074845834406</v>
       </c>
       <c r="Q6">
-        <v>-8.424349188687842</v>
+        <v>35.86071255927414</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S6">
-        <v>171.5756508112737</v>
+        <v>122.865418409526</v>
       </c>
     </row>
   </sheetData>
@@ -4016,58 +4016,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.624788622047593</v>
       </c>
       <c r="C2">
-        <v>3.622196780720851</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.620574524552952</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>230.2049955364137</v>
       </c>
       <c r="F2">
-        <v>230.0403915047677</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>229.9373644008923</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302728497187092</v>
+        <v>1.302728497187147</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.1359615531714</v>
       </c>
       <c r="J2">
-        <v>1.324394474185782</v>
+        <v>1.324394473163969</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.32439447410423</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563989</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.8370263417153535</v>
+        <v>0.6910524894908779</v>
       </c>
       <c r="O2">
-        <v>0.4028253111899538</v>
+        <v>1.100000023874118</v>
       </c>
       <c r="P2">
-        <v>0.691207680054002</v>
+        <v>0.8375887688093604</v>
       </c>
       <c r="Q2">
-        <v>8.945332824294125</v>
+        <v>40.43226936571288</v>
       </c>
       <c r="R2">
-        <v>-115.880758596451</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>160.3642634360259</v>
+        <v>128.9031471294005</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4075,58 +4075,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.490691422672488</v>
       </c>
       <c r="C3">
-        <v>1.500462822820001</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.418460210995387</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17.21302188317254</v>
       </c>
       <c r="F3">
-        <v>17.32585229328307</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>16.3789676930592</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552853</v>
+        <v>0.04239312320553314</v>
       </c>
       <c r="I3">
-        <v>0.8920439864270003</v>
+        <v>0.8920439864268153</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063851</v>
+        <v>0.1077319053178677</v>
       </c>
       <c r="K3">
-        <v>2.308438694631208</v>
+        <v>2.308438694642952</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131877</v>
+        <v>0.1077319054132356</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694642831</v>
       </c>
       <c r="N3">
-        <v>1.027156641749398</v>
+        <v>0.9282456356847606</v>
       </c>
       <c r="O3">
-        <v>0.8723446855816874</v>
+        <v>1.100000023844591</v>
       </c>
       <c r="P3">
-        <v>0.9370208351702841</v>
+        <v>1.036054303580423</v>
       </c>
       <c r="Q3">
-        <v>21.51178856867009</v>
+        <v>29.26280869103021</v>
       </c>
       <c r="R3">
-        <v>-100.0510163395943</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S3">
-        <v>149.0210852516981</v>
+        <v>141.4081155808164</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4134,58 +4134,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.245201051167219</v>
       </c>
       <c r="C4">
-        <v>1.367687710936925</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.181511502797519</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14.37834324173198</v>
       </c>
       <c r="F4">
-        <v>15.79269736153553</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>13.64291968381574</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.763767454829633</v>
+        <v>3.76376745482967</v>
       </c>
       <c r="I4">
-        <v>2.348036266670654</v>
+        <v>2.348036266670468</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570091</v>
+        <v>0.6277319162687921</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438697960034</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638716</v>
+        <v>0.6277319163640369</v>
       </c>
       <c r="M4">
-        <v>2.898438697960012</v>
+        <v>2.898438697959963</v>
       </c>
       <c r="N4">
-        <v>1.007909850061568</v>
+        <v>0.9154220783956216</v>
       </c>
       <c r="O4">
-        <v>0.8020156209384901</v>
+        <v>1.100000023844319</v>
       </c>
       <c r="P4">
-        <v>0.92652609797394</v>
+        <v>1.016210418329701</v>
       </c>
       <c r="Q4">
-        <v>20.15577503365077</v>
+        <v>30.2746771388187</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013436</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S4">
-        <v>151.3909791108389</v>
+        <v>141.074562026826</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4193,58 +4193,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.119863227965394</v>
       </c>
       <c r="C5">
-        <v>1.286962835605532</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.080740256403632</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>12.93106672242767</v>
       </c>
       <c r="F5">
-        <v>14.86056679147797</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12.47931355917404</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.24185727765917</v>
+        <v>6.241857277659228</v>
       </c>
       <c r="I5">
-        <v>3.316292621791288</v>
+        <v>3.316292621791102</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534733</v>
+        <v>0.9743985901653894</v>
       </c>
       <c r="K5">
-        <v>3.291772033553012</v>
+        <v>3.291772033564897</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603528</v>
+        <v>0.9743985902605997</v>
       </c>
       <c r="M5">
-        <v>3.291772033564909</v>
+        <v>3.291772033564859</v>
       </c>
       <c r="N5">
-        <v>0.9965895262864594</v>
+        <v>0.9082182492931202</v>
       </c>
       <c r="O5">
-        <v>0.761079236389861</v>
+        <v>1.100000023844148</v>
       </c>
       <c r="P5">
-        <v>0.9208309063949832</v>
+        <v>1.006672142415852</v>
       </c>
       <c r="Q5">
-        <v>19.30229108876318</v>
+        <v>30.74556405508114</v>
       </c>
       <c r="R5">
-        <v>-99.226445685717</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S5">
-        <v>152.7371614114739</v>
+        <v>140.8404969738619</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4252,58 +4252,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.119863227965394</v>
       </c>
       <c r="C6">
-        <v>1.286962835605533</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.080740256403632</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12.93106672242767</v>
       </c>
       <c r="F6">
-        <v>14.86056679147797</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12.47931355917404</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.241857277659169</v>
+        <v>6.241857277659228</v>
       </c>
       <c r="I6">
-        <v>3.316292621791288</v>
+        <v>3.316292621791101</v>
       </c>
       <c r="J6">
-        <v>0.9743985902534743</v>
+        <v>0.9743985901653883</v>
       </c>
       <c r="K6">
-        <v>3.291772033553014</v>
+        <v>3.291772033564897</v>
       </c>
       <c r="L6">
-        <v>0.9743985902603555</v>
+        <v>0.9743985902605973</v>
       </c>
       <c r="M6">
-        <v>3.291772033564908</v>
+        <v>3.29177203356486</v>
       </c>
       <c r="N6">
-        <v>0.9965895262864596</v>
+        <v>0.90821824929312</v>
       </c>
       <c r="O6">
-        <v>0.7610792363898611</v>
+        <v>1.100000023844148</v>
       </c>
       <c r="P6">
-        <v>0.920830906394983</v>
+        <v>1.006672142415852</v>
       </c>
       <c r="Q6">
-        <v>19.30229108876319</v>
+        <v>30.74556405508114</v>
       </c>
       <c r="R6">
-        <v>-99.22644568571701</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S6">
-        <v>152.7371614114739</v>
+        <v>140.8404969738619</v>
       </c>
     </row>
   </sheetData>
@@ -4534,58 +4534,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.624788622047593</v>
       </c>
       <c r="C2">
-        <v>3.622196780720851</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.620574524552952</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>230.2049955364137</v>
       </c>
       <c r="F2">
-        <v>230.0403915047677</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>229.9373644008923</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302728497187092</v>
+        <v>1.302728497187147</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.1359615531714</v>
       </c>
       <c r="J2">
-        <v>1.324394474185782</v>
+        <v>1.324394473163969</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.32439447410423</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563989</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.8370263417153535</v>
+        <v>0.6910524894908779</v>
       </c>
       <c r="O2">
-        <v>0.4028253111899538</v>
+        <v>1.100000023874118</v>
       </c>
       <c r="P2">
-        <v>0.691207680054002</v>
+        <v>0.8375887688093604</v>
       </c>
       <c r="Q2">
-        <v>8.945332824294125</v>
+        <v>40.43226936571288</v>
       </c>
       <c r="R2">
-        <v>-115.880758596451</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>160.3642634360259</v>
+        <v>128.9031471294005</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4593,58 +4593,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.490691422672488</v>
       </c>
       <c r="C3">
-        <v>1.500462822820001</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.418460210995387</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17.21302188317254</v>
       </c>
       <c r="F3">
-        <v>17.32585229328307</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>16.3789676930592</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552853</v>
+        <v>0.04239312320553314</v>
       </c>
       <c r="I3">
-        <v>0.8920439864270003</v>
+        <v>0.8920439864268153</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063851</v>
+        <v>0.1077319053178677</v>
       </c>
       <c r="K3">
-        <v>2.308438694631208</v>
+        <v>2.308438694642952</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131877</v>
+        <v>0.1077319054132356</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694642831</v>
       </c>
       <c r="N3">
-        <v>1.027156641749398</v>
+        <v>0.9282456356847606</v>
       </c>
       <c r="O3">
-        <v>0.8723446855816874</v>
+        <v>1.100000023844591</v>
       </c>
       <c r="P3">
-        <v>0.9370208351702841</v>
+        <v>1.036054303580423</v>
       </c>
       <c r="Q3">
-        <v>21.51178856867009</v>
+        <v>29.26280869103021</v>
       </c>
       <c r="R3">
-        <v>-100.0510163395943</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S3">
-        <v>149.0210852516981</v>
+        <v>141.4081155808164</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4652,58 +4652,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.245201051167219</v>
       </c>
       <c r="C4">
-        <v>1.367687710936925</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.181511502797519</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14.37834324173198</v>
       </c>
       <c r="F4">
-        <v>15.79269736153553</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>13.64291968381574</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.763767454829633</v>
+        <v>3.76376745482967</v>
       </c>
       <c r="I4">
-        <v>2.348036266670654</v>
+        <v>2.348036266670468</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570091</v>
+        <v>0.6277319162687921</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438697960034</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638716</v>
+        <v>0.6277319163640369</v>
       </c>
       <c r="M4">
-        <v>2.898438697960012</v>
+        <v>2.898438697959963</v>
       </c>
       <c r="N4">
-        <v>1.007909850061568</v>
+        <v>0.9154220783956216</v>
       </c>
       <c r="O4">
-        <v>0.8020156209384901</v>
+        <v>1.100000023844319</v>
       </c>
       <c r="P4">
-        <v>0.92652609797394</v>
+        <v>1.016210418329701</v>
       </c>
       <c r="Q4">
-        <v>20.15577503365077</v>
+        <v>30.2746771388187</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013436</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S4">
-        <v>151.3909791108389</v>
+        <v>141.074562026826</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4711,58 +4711,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.119863227965394</v>
       </c>
       <c r="C5">
-        <v>1.286962835605532</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.080740256403632</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>12.93106672242767</v>
       </c>
       <c r="F5">
-        <v>14.86056679147797</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12.47931355917404</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.24185727765917</v>
+        <v>6.241857277659228</v>
       </c>
       <c r="I5">
-        <v>3.316292621791288</v>
+        <v>3.316292621791102</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534733</v>
+        <v>0.9743985901653894</v>
       </c>
       <c r="K5">
-        <v>3.291772033553012</v>
+        <v>3.291772033564897</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603528</v>
+        <v>0.9743985902605997</v>
       </c>
       <c r="M5">
-        <v>3.291772033564909</v>
+        <v>3.291772033564859</v>
       </c>
       <c r="N5">
-        <v>0.9965895262864594</v>
+        <v>0.9082182492931202</v>
       </c>
       <c r="O5">
-        <v>0.761079236389861</v>
+        <v>1.100000023844148</v>
       </c>
       <c r="P5">
-        <v>0.9208309063949832</v>
+        <v>1.006672142415852</v>
       </c>
       <c r="Q5">
-        <v>19.30229108876318</v>
+        <v>30.74556405508114</v>
       </c>
       <c r="R5">
-        <v>-99.226445685717</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S5">
-        <v>152.7371614114739</v>
+        <v>140.8404969738619</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4770,58 +4770,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.119863227965394</v>
       </c>
       <c r="C6">
-        <v>1.286962835605533</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.080740256403632</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12.93106672242767</v>
       </c>
       <c r="F6">
-        <v>14.86056679147797</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12.47931355917404</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.241857277659169</v>
+        <v>6.241857277659228</v>
       </c>
       <c r="I6">
-        <v>3.316292621791288</v>
+        <v>3.316292621791101</v>
       </c>
       <c r="J6">
-        <v>0.9743985902534743</v>
+        <v>0.9743985901653883</v>
       </c>
       <c r="K6">
-        <v>3.291772033553014</v>
+        <v>3.291772033564897</v>
       </c>
       <c r="L6">
-        <v>0.9743985902603555</v>
+        <v>0.9743985902605973</v>
       </c>
       <c r="M6">
-        <v>3.291772033564908</v>
+        <v>3.29177203356486</v>
       </c>
       <c r="N6">
-        <v>0.9965895262864596</v>
+        <v>0.90821824929312</v>
       </c>
       <c r="O6">
-        <v>0.7610792363898611</v>
+        <v>1.100000023844148</v>
       </c>
       <c r="P6">
-        <v>0.920830906394983</v>
+        <v>1.006672142415852</v>
       </c>
       <c r="Q6">
-        <v>19.30229108876319</v>
+        <v>30.74556405508114</v>
       </c>
       <c r="R6">
-        <v>-99.22644568571701</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S6">
-        <v>152.7371614114739</v>
+        <v>140.8404969738619</v>
       </c>
     </row>
   </sheetData>
@@ -4901,58 +4901,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.212032512893233</v>
       </c>
       <c r="C2">
-        <v>4.204384259627432</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.206630976450862</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>267.49999156698</v>
       </c>
       <c r="F2">
-        <v>267.0142622479776</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>267.1569479298856</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.477132224444758</v>
+        <v>1.477132224444819</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.91066385932532</v>
       </c>
       <c r="J2">
-        <v>1.504993721246254</v>
+        <v>1.504993722648783</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695303</v>
+        <v>1.504993720695433</v>
       </c>
       <c r="M2">
-        <v>15.04993697229333</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.5755405427385627</v>
+        <v>0.5766042955957441</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9999999999962969</v>
       </c>
       <c r="P2">
-        <v>0.5755405427175678</v>
+        <v>0.5762963374228088</v>
       </c>
       <c r="Q2">
-        <v>0.01778356540110691</v>
+        <v>60.16407642166423</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>-179.9822164351396</v>
+        <v>119.8534853827561</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4960,58 +4960,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5.97157384539733</v>
       </c>
       <c r="C3">
-        <v>5.745794206822681</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.740103653389149</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>68.95379534251755</v>
       </c>
       <c r="F3">
-        <v>66.34671664034535</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>66.2810077892116</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641616</v>
+        <v>0.04805503825642135</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>0.9614893340929489</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949959</v>
+        <v>0.115351859490955</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540675819</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710882</v>
+        <v>0.1153518594711422</v>
       </c>
       <c r="M3">
-        <v>2.416397540675742</v>
+        <v>2.41639754067569</v>
       </c>
       <c r="N3">
-        <v>0.3837995827565153</v>
+        <v>0.5199875443305872</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.000000000006553</v>
       </c>
       <c r="P3">
-        <v>0.3837995827468358</v>
+        <v>0.5205030431981903</v>
       </c>
       <c r="Q3">
-        <v>-0.07137942505300529</v>
+        <v>73.95517106948729</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S3">
-        <v>179.9286205741262</v>
+        <v>106.028510192134</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5019,58 +5019,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.74817276872755</v>
       </c>
       <c r="C4">
-        <v>3.872505622973571</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.541826336173468</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>31.733165756089</v>
       </c>
       <c r="F4">
-        <v>44.71584327724262</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>29.35048238846064</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.193732704939277</v>
+        <v>7.193732704939343</v>
       </c>
       <c r="I4">
-        <v>2.361514783877013</v>
+        <v>2.361514783876803</v>
       </c>
       <c r="J4">
-        <v>1.113751880257012</v>
+        <v>1.11375188025313</v>
       </c>
       <c r="K4">
-        <v>3.006397543787044</v>
+        <v>3.006397543745559</v>
       </c>
       <c r="L4">
-        <v>1.113751880233081</v>
+        <v>1.113751880233363</v>
       </c>
       <c r="M4">
-        <v>3.006397543745578</v>
+        <v>3.006397543745526</v>
       </c>
       <c r="N4">
-        <v>0.7571028330123767</v>
+        <v>0.5599195007887739</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.000000000000872</v>
       </c>
       <c r="P4">
-        <v>0.7571028330124503</v>
+        <v>0.8530446727841295</v>
       </c>
       <c r="Q4">
-        <v>-8.328724856354359</v>
+        <v>31.54263638696132</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S4">
-        <v>171.6712751432005</v>
+        <v>124.0142189298934</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5078,58 +5078,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.87222321025526</v>
       </c>
       <c r="C5">
-        <v>3.056530518126802</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.24299034484626</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>21.61857148847879</v>
       </c>
       <c r="F5">
-        <v>35.29377434853632</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>25.8998215877344</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>11.95153542848486</v>
       </c>
       <c r="I5">
-        <v>3.289099158714406</v>
+        <v>3.28909915871419</v>
       </c>
       <c r="J5">
-        <v>1.779351894016358</v>
+        <v>1.779351894012612</v>
       </c>
       <c r="K5">
-        <v>3.399730879285311</v>
+        <v>3.399730879243815</v>
       </c>
       <c r="L5">
-        <v>1.779351893992423</v>
+        <v>1.779351893992853</v>
       </c>
       <c r="M5">
-        <v>3.3997308792439</v>
+        <v>3.39973087924385</v>
       </c>
       <c r="N5">
-        <v>0.7792462130273656</v>
+        <v>0.6408314607524357</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.000000000000246</v>
       </c>
       <c r="P5">
-        <v>0.7792462130277941</v>
+        <v>0.8732631958338907</v>
       </c>
       <c r="Q5">
-        <v>-5.84467795562561</v>
+        <v>30.3746914538796</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S5">
-        <v>174.1553220439202</v>
+        <v>129.279728539824</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5137,58 +5137,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.87222321025526</v>
       </c>
       <c r="C6">
-        <v>3.056530518126803</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.242990344846261</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>21.61857148847879</v>
       </c>
       <c r="F6">
-        <v>35.29377434853632</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>25.8998215877344</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11.95153542848475</v>
+        <v>11.95153542848486</v>
       </c>
       <c r="I6">
-        <v>3.289099158714409</v>
+        <v>3.289099158714198</v>
       </c>
       <c r="J6">
-        <v>1.779351894016358</v>
+        <v>1.779351894012611</v>
       </c>
       <c r="K6">
-        <v>3.399730879285313</v>
+        <v>3.399730879243816</v>
       </c>
       <c r="L6">
-        <v>1.779351893992422</v>
+        <v>1.779351893992852</v>
       </c>
       <c r="M6">
-        <v>3.399730879243898</v>
+        <v>3.399730879243851</v>
       </c>
       <c r="N6">
-        <v>0.7792462130273656</v>
+        <v>0.6408314607524356</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.000000000000246</v>
       </c>
       <c r="P6">
-        <v>0.7792462130277941</v>
+        <v>0.8732631958338906</v>
       </c>
       <c r="Q6">
-        <v>-5.844677955625632</v>
+        <v>30.37469145387961</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
-        <v>174.1553220439202</v>
+        <v>129.279728539824</v>
       </c>
     </row>
   </sheetData>
@@ -5268,58 +5268,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.212032512893233</v>
       </c>
       <c r="C2">
-        <v>4.204384259627432</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.206630976450862</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>267.49999156698</v>
       </c>
       <c r="F2">
-        <v>267.0142622479776</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>267.1569479298856</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.477132224444758</v>
+        <v>1.477132224444819</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.91066385932532</v>
       </c>
       <c r="J2">
-        <v>1.504993721246254</v>
+        <v>1.504993722648783</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695303</v>
+        <v>1.504993720695433</v>
       </c>
       <c r="M2">
-        <v>15.04993697229333</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.5755405427385627</v>
+        <v>0.5766042955957441</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9999999999962969</v>
       </c>
       <c r="P2">
-        <v>0.5755405427175678</v>
+        <v>0.5762963374228088</v>
       </c>
       <c r="Q2">
-        <v>0.01778356540110691</v>
+        <v>60.16407642166423</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>-179.9822164351396</v>
+        <v>119.8534853827561</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5327,58 +5327,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5.97157384539733</v>
       </c>
       <c r="C3">
-        <v>5.745794206822681</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.740103653389149</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>68.95379534251755</v>
       </c>
       <c r="F3">
-        <v>66.34671664034535</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>66.2810077892116</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641616</v>
+        <v>0.04805503825642135</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>0.9614893340929489</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949959</v>
+        <v>0.115351859490955</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540675819</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710882</v>
+        <v>0.1153518594711422</v>
       </c>
       <c r="M3">
-        <v>2.416397540675742</v>
+        <v>2.41639754067569</v>
       </c>
       <c r="N3">
-        <v>0.3837995827565153</v>
+        <v>0.5199875443305872</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.000000000006553</v>
       </c>
       <c r="P3">
-        <v>0.3837995827468358</v>
+        <v>0.5205030431981903</v>
       </c>
       <c r="Q3">
-        <v>-0.07137942505300529</v>
+        <v>73.95517106948729</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S3">
-        <v>179.9286205741262</v>
+        <v>106.028510192134</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5386,58 +5386,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.74817276872755</v>
       </c>
       <c r="C4">
-        <v>3.872505622973571</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.541826336173468</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>31.733165756089</v>
       </c>
       <c r="F4">
-        <v>44.71584327724262</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>29.35048238846064</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.193732704939277</v>
+        <v>7.193732704939343</v>
       </c>
       <c r="I4">
-        <v>2.361514783877013</v>
+        <v>2.361514783876803</v>
       </c>
       <c r="J4">
-        <v>1.113751880257012</v>
+        <v>1.11375188025313</v>
       </c>
       <c r="K4">
-        <v>3.006397543787044</v>
+        <v>3.006397543745559</v>
       </c>
       <c r="L4">
-        <v>1.113751880233081</v>
+        <v>1.113751880233363</v>
       </c>
       <c r="M4">
-        <v>3.006397543745578</v>
+        <v>3.006397543745526</v>
       </c>
       <c r="N4">
-        <v>0.7571028330123767</v>
+        <v>0.5599195007887739</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.000000000000872</v>
       </c>
       <c r="P4">
-        <v>0.7571028330124503</v>
+        <v>0.8530446727841295</v>
       </c>
       <c r="Q4">
-        <v>-8.328724856354359</v>
+        <v>31.54263638696132</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S4">
-        <v>171.6712751432005</v>
+        <v>124.0142189298934</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5445,58 +5445,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.87222321025526</v>
       </c>
       <c r="C5">
-        <v>3.056530518126802</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.24299034484626</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>21.61857148847879</v>
       </c>
       <c r="F5">
-        <v>35.29377434853632</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>25.8998215877344</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>11.95153542848486</v>
       </c>
       <c r="I5">
-        <v>3.289099158714406</v>
+        <v>3.28909915871419</v>
       </c>
       <c r="J5">
-        <v>1.779351894016358</v>
+        <v>1.779351894012612</v>
       </c>
       <c r="K5">
-        <v>3.399730879285311</v>
+        <v>3.399730879243815</v>
       </c>
       <c r="L5">
-        <v>1.779351893992423</v>
+        <v>1.779351893992853</v>
       </c>
       <c r="M5">
-        <v>3.3997308792439</v>
+        <v>3.39973087924385</v>
       </c>
       <c r="N5">
-        <v>0.7792462130273656</v>
+        <v>0.6408314607524357</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.000000000000246</v>
       </c>
       <c r="P5">
-        <v>0.7792462130277941</v>
+        <v>0.8732631958338907</v>
       </c>
       <c r="Q5">
-        <v>-5.84467795562561</v>
+        <v>30.3746914538796</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S5">
-        <v>174.1553220439202</v>
+        <v>129.279728539824</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5504,58 +5504,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.87222321025526</v>
       </c>
       <c r="C6">
-        <v>3.056530518126803</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.242990344846261</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>21.61857148847879</v>
       </c>
       <c r="F6">
-        <v>35.29377434853632</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>25.8998215877344</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11.95153542848475</v>
+        <v>11.95153542848486</v>
       </c>
       <c r="I6">
-        <v>3.289099158714409</v>
+        <v>3.289099158714198</v>
       </c>
       <c r="J6">
-        <v>1.779351894016358</v>
+        <v>1.779351894012611</v>
       </c>
       <c r="K6">
-        <v>3.399730879285313</v>
+        <v>3.399730879243816</v>
       </c>
       <c r="L6">
-        <v>1.779351893992422</v>
+        <v>1.779351893992852</v>
       </c>
       <c r="M6">
-        <v>3.399730879243898</v>
+        <v>3.399730879243851</v>
       </c>
       <c r="N6">
-        <v>0.7792462130273656</v>
+        <v>0.6408314607524356</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.000000000000246</v>
       </c>
       <c r="P6">
-        <v>0.7792462130277941</v>
+        <v>0.8732631958338906</v>
       </c>
       <c r="Q6">
-        <v>-5.844677955625632</v>
+        <v>30.37469145387961</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
-        <v>174.1553220439202</v>
+        <v>129.279728539824</v>
       </c>
     </row>
   </sheetData>
@@ -5635,58 +5635,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.019649548546143</v>
       </c>
       <c r="C2">
-        <v>3.016979709350076</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.015609147514251</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>191.7735027682592</v>
       </c>
       <c r="F2">
-        <v>191.6039452066196</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>191.5169028396856</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.477132224444758</v>
+        <v>1.477132224444819</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.91066385932532</v>
       </c>
       <c r="J2">
-        <v>1.504993721246254</v>
+        <v>1.504993722648783</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695303</v>
+        <v>1.504993720695433</v>
       </c>
       <c r="M2">
-        <v>15.04993697229333</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.7463818174272806</v>
+        <v>0.6175673670508008</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689802</v>
+        <v>0.9999999999908362</v>
       </c>
       <c r="P2">
-        <v>0.6176823562862077</v>
+        <v>0.7469940856229431</v>
       </c>
       <c r="Q2">
-        <v>8.095655125584305</v>
+        <v>41.80820715816542</v>
       </c>
       <c r="R2">
-        <v>-117.0248837768021</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>161.7222372450655</v>
+        <v>128.0415939455684</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5694,58 +5694,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.342470622519292</v>
       </c>
       <c r="C3">
-        <v>1.351080255599718</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.276571043403532</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15.50151550581355</v>
       </c>
       <c r="F3">
-        <v>15.60093098534571</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.74057271097421</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641616</v>
+        <v>0.04805503825642135</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>0.9614893340929489</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949959</v>
+        <v>0.115351859490955</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540675819</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710882</v>
+        <v>0.1153518594711422</v>
       </c>
       <c r="M3">
-        <v>2.416397540675742</v>
+        <v>2.41639754067569</v>
       </c>
       <c r="N3">
-        <v>0.9305424391900117</v>
+        <v>0.8379950716203171</v>
       </c>
       <c r="O3">
-        <v>0.784852101413924</v>
+        <v>1.000000000000764</v>
       </c>
       <c r="P3">
-        <v>0.8463559336115191</v>
+        <v>0.9390599239777049</v>
       </c>
       <c r="Q3">
-        <v>21.20506830981838</v>
+        <v>29.30792029102571</v>
       </c>
       <c r="R3">
-        <v>-100.4045966787053</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S3">
-        <v>149.0428370113121</v>
+        <v>141.0918491689127</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5753,58 +5753,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.024740802367924</v>
       </c>
       <c r="C4">
-        <v>1.200428213411252</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9718342163060487</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>11.83268756193429</v>
       </c>
       <c r="F4">
-        <v>13.86135104311616</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>11.22177492783972</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.193732704939277</v>
+        <v>7.193732704939343</v>
       </c>
       <c r="I4">
-        <v>2.361514783877013</v>
+        <v>2.361514783876803</v>
       </c>
       <c r="J4">
-        <v>1.113751880257012</v>
+        <v>1.11375188025313</v>
       </c>
       <c r="K4">
-        <v>3.006397543787044</v>
+        <v>3.006397543745559</v>
       </c>
       <c r="L4">
-        <v>1.113751880233081</v>
+        <v>1.113751880233363</v>
       </c>
       <c r="M4">
-        <v>3.006397543745578</v>
+        <v>3.006397543745526</v>
       </c>
       <c r="N4">
-        <v>0.9054589484767289</v>
+        <v>0.8362268383894174</v>
       </c>
       <c r="O4">
-        <v>0.7019303077931052</v>
+        <v>1.000000000000371</v>
       </c>
       <c r="P4">
-        <v>0.8514942418922238</v>
+        <v>0.918107640054168</v>
       </c>
       <c r="Q4">
-        <v>19.89479362818984</v>
+        <v>30.79943024266928</v>
       </c>
       <c r="R4">
-        <v>-97.63434507043141</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S4">
-        <v>152.9232597311816</v>
+        <v>141.4770536805405</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5812,58 +5812,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8769707240428686</v>
       </c>
       <c r="C5">
-        <v>1.102175546000733</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.874644674764108</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>10.12638567195142</v>
       </c>
       <c r="F5">
-        <v>12.72682696355492</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>10.09952676840661</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>11.95153542848486</v>
       </c>
       <c r="I5">
-        <v>3.289099158714406</v>
+        <v>3.28909915871419</v>
       </c>
       <c r="J5">
-        <v>1.779351894016358</v>
+        <v>1.779351894012612</v>
       </c>
       <c r="K5">
-        <v>3.399730879285311</v>
+        <v>3.399730879243815</v>
       </c>
       <c r="L5">
-        <v>1.779351893992423</v>
+        <v>1.779351893992853</v>
       </c>
       <c r="M5">
-        <v>3.3997308792439</v>
+        <v>3.39973087924385</v>
       </c>
       <c r="N5">
-        <v>0.8896165412108605</v>
+        <v>0.8332746221838924</v>
       </c>
       <c r="O5">
-        <v>0.6550793552705578</v>
+        <v>1.000000000000236</v>
       </c>
       <c r="P5">
-        <v>0.8519162036884855</v>
+        <v>0.9085834169431387</v>
       </c>
       <c r="Q5">
-        <v>19.02649055485134</v>
+        <v>31.42153392358027</v>
       </c>
       <c r="R5">
-        <v>-96.09329345653539</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S5">
-        <v>154.901756168165</v>
+        <v>141.5014391686906</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5871,58 +5871,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.8769707240428687</v>
       </c>
       <c r="C6">
-        <v>1.102175546000734</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8746446747641081</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10.12638567195143</v>
       </c>
       <c r="F6">
-        <v>12.72682696355493</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>10.09952676840661</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11.95153542848475</v>
+        <v>11.95153542848486</v>
       </c>
       <c r="I6">
-        <v>3.289099158714409</v>
+        <v>3.289099158714198</v>
       </c>
       <c r="J6">
-        <v>1.779351894016358</v>
+        <v>1.779351894012611</v>
       </c>
       <c r="K6">
-        <v>3.399730879285313</v>
+        <v>3.399730879243816</v>
       </c>
       <c r="L6">
-        <v>1.779351893992422</v>
+        <v>1.779351893992852</v>
       </c>
       <c r="M6">
-        <v>3.399730879243898</v>
+        <v>3.399730879243851</v>
       </c>
       <c r="N6">
-        <v>0.8896165412108603</v>
+        <v>0.8332746221838924</v>
       </c>
       <c r="O6">
-        <v>0.6550793552705577</v>
+        <v>1.000000000000236</v>
       </c>
       <c r="P6">
-        <v>0.8519162036884854</v>
+        <v>0.9085834169431386</v>
       </c>
       <c r="Q6">
-        <v>19.02649055485133</v>
+        <v>31.42153392358027</v>
       </c>
       <c r="R6">
-        <v>-96.09329345653539</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S6">
-        <v>154.901756168165</v>
+        <v>141.5014391686906</v>
       </c>
     </row>
   </sheetData>
@@ -6002,58 +6002,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.019649548546143</v>
       </c>
       <c r="C2">
-        <v>3.016979709350076</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.015609147514251</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>191.7735027682592</v>
       </c>
       <c r="F2">
-        <v>191.6039452066196</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>191.5169028396856</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.477132224444758</v>
+        <v>1.477132224444819</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.91066385932532</v>
       </c>
       <c r="J2">
-        <v>1.504993721246254</v>
+        <v>1.504993722648783</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695303</v>
+        <v>1.504993720695433</v>
       </c>
       <c r="M2">
-        <v>15.04993697229333</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.7463818174272806</v>
+        <v>0.6175673670508008</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689802</v>
+        <v>0.9999999999908362</v>
       </c>
       <c r="P2">
-        <v>0.6176823562862077</v>
+        <v>0.7469940856229431</v>
       </c>
       <c r="Q2">
-        <v>8.095655125584305</v>
+        <v>41.80820715816542</v>
       </c>
       <c r="R2">
-        <v>-117.0248837768021</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>161.7222372450655</v>
+        <v>128.0415939455684</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6061,58 +6061,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.342470622519292</v>
       </c>
       <c r="C3">
-        <v>1.351080255599718</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.276571043403532</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15.50151550581355</v>
       </c>
       <c r="F3">
-        <v>15.60093098534571</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.74057271097421</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641616</v>
+        <v>0.04805503825642135</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>0.9614893340929489</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949959</v>
+        <v>0.115351859490955</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540675819</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710882</v>
+        <v>0.1153518594711422</v>
       </c>
       <c r="M3">
-        <v>2.416397540675742</v>
+        <v>2.41639754067569</v>
       </c>
       <c r="N3">
-        <v>0.9305424391900117</v>
+        <v>0.8379950716203171</v>
       </c>
       <c r="O3">
-        <v>0.784852101413924</v>
+        <v>1.000000000000764</v>
       </c>
       <c r="P3">
-        <v>0.8463559336115191</v>
+        <v>0.9390599239777049</v>
       </c>
       <c r="Q3">
-        <v>21.20506830981838</v>
+        <v>29.30792029102571</v>
       </c>
       <c r="R3">
-        <v>-100.4045966787053</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S3">
-        <v>149.0428370113121</v>
+        <v>141.0918491689127</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6120,58 +6120,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.024740802367924</v>
       </c>
       <c r="C4">
-        <v>1.200428213411252</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9718342163060487</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>11.83268756193429</v>
       </c>
       <c r="F4">
-        <v>13.86135104311616</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>11.22177492783972</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.193732704939277</v>
+        <v>7.193732704939343</v>
       </c>
       <c r="I4">
-        <v>2.361514783877013</v>
+        <v>2.361514783876803</v>
       </c>
       <c r="J4">
-        <v>1.113751880257012</v>
+        <v>1.11375188025313</v>
       </c>
       <c r="K4">
-        <v>3.006397543787044</v>
+        <v>3.006397543745559</v>
       </c>
       <c r="L4">
-        <v>1.113751880233081</v>
+        <v>1.113751880233363</v>
       </c>
       <c r="M4">
-        <v>3.006397543745578</v>
+        <v>3.006397543745526</v>
       </c>
       <c r="N4">
-        <v>0.9054589484767289</v>
+        <v>0.8362268383894174</v>
       </c>
       <c r="O4">
-        <v>0.7019303077931052</v>
+        <v>1.000000000000371</v>
       </c>
       <c r="P4">
-        <v>0.8514942418922238</v>
+        <v>0.918107640054168</v>
       </c>
       <c r="Q4">
-        <v>19.89479362818984</v>
+        <v>30.79943024266928</v>
       </c>
       <c r="R4">
-        <v>-97.63434507043141</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S4">
-        <v>152.9232597311816</v>
+        <v>141.4770536805405</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6179,58 +6179,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8769707240428686</v>
       </c>
       <c r="C5">
-        <v>1.102175546000733</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.874644674764108</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>10.12638567195142</v>
       </c>
       <c r="F5">
-        <v>12.72682696355492</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>10.09952676840661</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>11.95153542848486</v>
       </c>
       <c r="I5">
-        <v>3.289099158714406</v>
+        <v>3.28909915871419</v>
       </c>
       <c r="J5">
-        <v>1.779351894016358</v>
+        <v>1.779351894012612</v>
       </c>
       <c r="K5">
-        <v>3.399730879285311</v>
+        <v>3.399730879243815</v>
       </c>
       <c r="L5">
-        <v>1.779351893992423</v>
+        <v>1.779351893992853</v>
       </c>
       <c r="M5">
-        <v>3.3997308792439</v>
+        <v>3.39973087924385</v>
       </c>
       <c r="N5">
-        <v>0.8896165412108605</v>
+        <v>0.8332746221838924</v>
       </c>
       <c r="O5">
-        <v>0.6550793552705578</v>
+        <v>1.000000000000236</v>
       </c>
       <c r="P5">
-        <v>0.8519162036884855</v>
+        <v>0.9085834169431387</v>
       </c>
       <c r="Q5">
-        <v>19.02649055485134</v>
+        <v>31.42153392358027</v>
       </c>
       <c r="R5">
-        <v>-96.09329345653539</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S5">
-        <v>154.901756168165</v>
+        <v>141.5014391686906</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6238,58 +6238,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.8769707240428687</v>
       </c>
       <c r="C6">
-        <v>1.102175546000734</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8746446747641081</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10.12638567195143</v>
       </c>
       <c r="F6">
-        <v>12.72682696355493</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>10.09952676840661</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11.95153542848475</v>
+        <v>11.95153542848486</v>
       </c>
       <c r="I6">
-        <v>3.289099158714409</v>
+        <v>3.289099158714198</v>
       </c>
       <c r="J6">
-        <v>1.779351894016358</v>
+        <v>1.779351894012611</v>
       </c>
       <c r="K6">
-        <v>3.399730879285313</v>
+        <v>3.399730879243816</v>
       </c>
       <c r="L6">
-        <v>1.779351893992422</v>
+        <v>1.779351893992852</v>
       </c>
       <c r="M6">
-        <v>3.399730879243898</v>
+        <v>3.399730879243851</v>
       </c>
       <c r="N6">
-        <v>0.8896165412108603</v>
+        <v>0.8332746221838924</v>
       </c>
       <c r="O6">
-        <v>0.6550793552705577</v>
+        <v>1.000000000000236</v>
       </c>
       <c r="P6">
-        <v>0.8519162036884854</v>
+        <v>0.9085834169431386</v>
       </c>
       <c r="Q6">
-        <v>19.02649055485133</v>
+        <v>31.42153392358027</v>
       </c>
       <c r="R6">
-        <v>-96.09329345653539</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S6">
-        <v>154.901756168165</v>
+        <v>141.5014391686906</v>
       </c>
     </row>
   </sheetData>
@@ -6369,58 +6369,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.263085436319229</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.254654037497586</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.257139832776042</v>
       </c>
       <c r="E2">
-        <v>334.2508172769597</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>333.7153515352344</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>333.8732207382828</v>
       </c>
       <c r="H2">
-        <v>1.302728497187147</v>
+        <v>1.302728497187092</v>
       </c>
       <c r="I2">
-        <v>13.1359615531714</v>
+        <v>13.1359615531725</v>
       </c>
       <c r="J2">
-        <v>1.324394473163969</v>
+        <v>1.324394474185782</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578182</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6343631080284402</v>
+        <v>0.6333325747224056</v>
       </c>
       <c r="O2">
-        <v>1.100000023884803</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6340631546307569</v>
+        <v>0.6333325747384951</v>
       </c>
       <c r="Q2">
-        <v>60.1445365371062</v>
+        <v>0.01573189450824681</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.8710225215628</v>
+        <v>-179.9842681045647</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6428,58 +6428,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.909418745469262</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6.655742685060392</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6.653268916077334</v>
       </c>
       <c r="E3">
-        <v>79.7830954528105</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>76.85389661753</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>76.82533199376438</v>
       </c>
       <c r="H3">
-        <v>0.04239312320553314</v>
+        <v>0.04239312320552853</v>
       </c>
       <c r="I3">
-        <v>0.8920439864268153</v>
+        <v>0.8920439864270003</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178677</v>
+        <v>0.1077319054063851</v>
       </c>
       <c r="K3">
-        <v>2.308438694642952</v>
+        <v>2.308438694631208</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132356</v>
+        <v>0.1077319054131877</v>
       </c>
       <c r="M3">
-        <v>2.308438694642831</v>
+        <v>2.308438694642881</v>
       </c>
       <c r="N3">
-        <v>0.5711176213502599</v>
+        <v>0.4152961960350116</v>
       </c>
       <c r="O3">
-        <v>1.100000023844381</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5713299700315976</v>
+        <v>0.4152961960482956</v>
       </c>
       <c r="Q3">
-        <v>74.32950827093296</v>
+        <v>-0.02756566514285248</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999598</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>105.6645177901049</v>
+        <v>179.9724343335005</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6487,58 +6487,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.982869958781635</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.89108550853529</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.072304282888318</v>
       </c>
       <c r="E4">
-        <v>45.99022085699701</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>56.47739069964655</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>35.47591409516021</v>
       </c>
       <c r="H4">
-        <v>3.76376745482967</v>
+        <v>3.763767454829633</v>
       </c>
       <c r="I4">
-        <v>2.348036266670468</v>
+        <v>2.348036266670654</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687921</v>
+        <v>0.6277319163570091</v>
       </c>
       <c r="K4">
-        <v>2.898438697960034</v>
+        <v>2.89843869794818</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640369</v>
+        <v>0.6277319163638716</v>
       </c>
       <c r="M4">
-        <v>2.898438697959963</v>
+        <v>2.898438697960012</v>
       </c>
       <c r="N4">
-        <v>0.5306392271699696</v>
+        <v>0.7584426162678322</v>
       </c>
       <c r="O4">
-        <v>1.100000023848401</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.844773692729857</v>
+        <v>0.7584426162729176</v>
       </c>
       <c r="Q4">
-        <v>41.78823137284841</v>
+        <v>-11.00281462486177</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>117.9273743248247</v>
+        <v>168.9971853750447</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6546,58 +6546,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.965638532986287</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.99628359033844</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.675884889875203</v>
       </c>
       <c r="E5">
-        <v>34.24424410677519</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>46.14510813279966</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.89845722979801</v>
       </c>
       <c r="H5">
-        <v>6.241857277659228</v>
+        <v>6.24185727765917</v>
       </c>
       <c r="I5">
-        <v>3.316292621791102</v>
+        <v>3.316292621791288</v>
       </c>
       <c r="J5">
-        <v>0.9743985901653894</v>
+        <v>0.9743985902534733</v>
       </c>
       <c r="K5">
-        <v>3.291772033564897</v>
+        <v>3.291772033553012</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605997</v>
+        <v>0.9743985902603528</v>
       </c>
       <c r="M5">
-        <v>3.291772033564859</v>
+        <v>3.291772033564909</v>
       </c>
       <c r="N5">
-        <v>0.5977509891594077</v>
+        <v>0.8053397867753366</v>
       </c>
       <c r="O5">
-        <v>1.100000023847591</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8927074845834405</v>
+        <v>0.8053397867791066</v>
       </c>
       <c r="Q5">
-        <v>35.86071255927416</v>
+        <v>-8.424349188687852</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>122.865418409526</v>
+        <v>171.5756508112737</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6605,58 +6605,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2.965638532986288</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.996283590338439</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.675884889875202</v>
       </c>
       <c r="E6">
-        <v>34.24424410677521</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>46.14510813279963</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>30.89845722979801</v>
       </c>
       <c r="H6">
-        <v>6.241857277659228</v>
+        <v>6.241857277659169</v>
       </c>
       <c r="I6">
-        <v>3.316292621791101</v>
+        <v>3.316292621791288</v>
       </c>
       <c r="J6">
-        <v>0.9743985901653883</v>
+        <v>0.9743985902534743</v>
       </c>
       <c r="K6">
-        <v>3.291772033564897</v>
+        <v>3.291772033553014</v>
       </c>
       <c r="L6">
-        <v>0.9743985902605973</v>
+        <v>0.9743985902603555</v>
       </c>
       <c r="M6">
-        <v>3.29177203356486</v>
+        <v>3.291772033564908</v>
       </c>
       <c r="N6">
-        <v>0.5977509891594077</v>
+        <v>0.8053397867753366</v>
       </c>
       <c r="O6">
-        <v>1.100000023847591</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8927074845834406</v>
+        <v>0.8053397867791066</v>
       </c>
       <c r="Q6">
-        <v>35.86071255927414</v>
+        <v>-8.424349188687842</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>122.865418409526</v>
+        <v>171.5756508112737</v>
       </c>
     </row>
   </sheetData>
@@ -6736,58 +6736,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.263085436319229</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.254654037497586</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.257139832776042</v>
       </c>
       <c r="E2">
-        <v>334.2508172769597</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>333.7153515352344</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>333.8732207382828</v>
       </c>
       <c r="H2">
-        <v>1.302728497187147</v>
+        <v>1.302728497187092</v>
       </c>
       <c r="I2">
-        <v>13.1359615531714</v>
+        <v>13.1359615531725</v>
       </c>
       <c r="J2">
-        <v>1.324394473163969</v>
+        <v>1.324394474185782</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578182</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6343631080284402</v>
+        <v>0.6333325747224056</v>
       </c>
       <c r="O2">
-        <v>1.100000023884803</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6340631546307569</v>
+        <v>0.6333325747384951</v>
       </c>
       <c r="Q2">
-        <v>60.1445365371062</v>
+        <v>0.01573189450824681</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.8710225215628</v>
+        <v>-179.9842681045647</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6795,58 +6795,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.909418745469262</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6.655742685060392</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6.653268916077334</v>
       </c>
       <c r="E3">
-        <v>79.7830954528105</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>76.85389661753</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>76.82533199376438</v>
       </c>
       <c r="H3">
-        <v>0.04239312320553314</v>
+        <v>0.04239312320552853</v>
       </c>
       <c r="I3">
-        <v>0.8920439864268153</v>
+        <v>0.8920439864270003</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178677</v>
+        <v>0.1077319054063851</v>
       </c>
       <c r="K3">
-        <v>2.308438694642952</v>
+        <v>2.308438694631208</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132356</v>
+        <v>0.1077319054131877</v>
       </c>
       <c r="M3">
-        <v>2.308438694642831</v>
+        <v>2.308438694642881</v>
       </c>
       <c r="N3">
-        <v>0.5711176213502599</v>
+        <v>0.4152961960350116</v>
       </c>
       <c r="O3">
-        <v>1.100000023844381</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5713299700315976</v>
+        <v>0.4152961960482956</v>
       </c>
       <c r="Q3">
-        <v>74.32950827093296</v>
+        <v>-0.02756566514285248</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999598</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>105.6645177901049</v>
+        <v>179.9724343335005</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6854,58 +6854,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.982869958781635</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.89108550853529</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.072304282888318</v>
       </c>
       <c r="E4">
-        <v>45.99022085699701</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>56.47739069964655</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>35.47591409516021</v>
       </c>
       <c r="H4">
-        <v>3.76376745482967</v>
+        <v>3.763767454829633</v>
       </c>
       <c r="I4">
-        <v>2.348036266670468</v>
+        <v>2.348036266670654</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687921</v>
+        <v>0.6277319163570091</v>
       </c>
       <c r="K4">
-        <v>2.898438697960034</v>
+        <v>2.89843869794818</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640369</v>
+        <v>0.6277319163638716</v>
       </c>
       <c r="M4">
-        <v>2.898438697959963</v>
+        <v>2.898438697960012</v>
       </c>
       <c r="N4">
-        <v>0.5306392271699696</v>
+        <v>0.7584426162678322</v>
       </c>
       <c r="O4">
-        <v>1.100000023848401</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.844773692729857</v>
+        <v>0.7584426162729176</v>
       </c>
       <c r="Q4">
-        <v>41.78823137284841</v>
+        <v>-11.00281462486177</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>117.9273743248247</v>
+        <v>168.9971853750447</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6913,58 +6913,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.965638532986287</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.99628359033844</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.675884889875203</v>
       </c>
       <c r="E5">
-        <v>34.24424410677519</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>46.14510813279966</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.89845722979801</v>
       </c>
       <c r="H5">
-        <v>6.241857277659228</v>
+        <v>6.24185727765917</v>
       </c>
       <c r="I5">
-        <v>3.316292621791102</v>
+        <v>3.316292621791288</v>
       </c>
       <c r="J5">
-        <v>0.9743985901653894</v>
+        <v>0.9743985902534733</v>
       </c>
       <c r="K5">
-        <v>3.291772033564897</v>
+        <v>3.291772033553012</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605997</v>
+        <v>0.9743985902603528</v>
       </c>
       <c r="M5">
-        <v>3.291772033564859</v>
+        <v>3.291772033564909</v>
       </c>
       <c r="N5">
-        <v>0.5977509891594077</v>
+        <v>0.8053397867753366</v>
       </c>
       <c r="O5">
-        <v>1.100000023847591</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8927074845834405</v>
+        <v>0.8053397867791066</v>
       </c>
       <c r="Q5">
-        <v>35.86071255927416</v>
+        <v>-8.424349188687852</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>122.865418409526</v>
+        <v>171.5756508112737</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6972,58 +6972,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2.965638532986288</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.996283590338439</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.675884889875202</v>
       </c>
       <c r="E6">
-        <v>34.24424410677521</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>46.14510813279963</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>30.89845722979801</v>
       </c>
       <c r="H6">
-        <v>6.241857277659228</v>
+        <v>6.241857277659169</v>
       </c>
       <c r="I6">
-        <v>3.316292621791101</v>
+        <v>3.316292621791288</v>
       </c>
       <c r="J6">
-        <v>0.9743985901653883</v>
+        <v>0.9743985902534743</v>
       </c>
       <c r="K6">
-        <v>3.291772033564897</v>
+        <v>3.291772033553014</v>
       </c>
       <c r="L6">
-        <v>0.9743985902605973</v>
+        <v>0.9743985902603555</v>
       </c>
       <c r="M6">
-        <v>3.29177203356486</v>
+        <v>3.291772033564908</v>
       </c>
       <c r="N6">
-        <v>0.5977509891594077</v>
+        <v>0.8053397867753366</v>
       </c>
       <c r="O6">
-        <v>1.100000023847591</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8927074845834406</v>
+        <v>0.8053397867791066</v>
       </c>
       <c r="Q6">
-        <v>35.86071255927414</v>
+        <v>-8.424349188687842</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>122.865418409526</v>
+        <v>171.5756508112737</v>
       </c>
     </row>
   </sheetData>
@@ -7103,58 +7103,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.624788622047593</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.622196780720851</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.620574524552952</v>
       </c>
       <c r="E2">
-        <v>230.2049955364137</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>230.0403915047677</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>229.9373644008923</v>
       </c>
       <c r="H2">
-        <v>1.302728497187147</v>
+        <v>1.302728497187092</v>
       </c>
       <c r="I2">
-        <v>13.1359615531714</v>
+        <v>13.1359615531725</v>
       </c>
       <c r="J2">
-        <v>1.324394473163969</v>
+        <v>1.324394474185782</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578182</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6910524894908779</v>
+        <v>0.8370263417153535</v>
       </c>
       <c r="O2">
-        <v>1.100000023874118</v>
+        <v>0.4028253111899538</v>
       </c>
       <c r="P2">
-        <v>0.8375887688093604</v>
+        <v>0.691207680054002</v>
       </c>
       <c r="Q2">
-        <v>40.43226936571288</v>
+        <v>8.945332824294125</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999652</v>
+        <v>-115.880758596451</v>
       </c>
       <c r="S2">
-        <v>128.9031471294005</v>
+        <v>160.3642634360259</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7162,58 +7162,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.490691422672488</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.500462822820001</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.418460210995387</v>
       </c>
       <c r="E3">
-        <v>17.21302188317254</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17.32585229328307</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>16.3789676930592</v>
       </c>
       <c r="H3">
-        <v>0.04239312320553314</v>
+        <v>0.04239312320552853</v>
       </c>
       <c r="I3">
-        <v>0.8920439864268153</v>
+        <v>0.8920439864270003</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178677</v>
+        <v>0.1077319054063851</v>
       </c>
       <c r="K3">
-        <v>2.308438694642952</v>
+        <v>2.308438694631208</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132356</v>
+        <v>0.1077319054131877</v>
       </c>
       <c r="M3">
-        <v>2.308438694642831</v>
+        <v>2.308438694642881</v>
       </c>
       <c r="N3">
-        <v>0.9282456356847606</v>
+        <v>1.027156641749398</v>
       </c>
       <c r="O3">
-        <v>1.100000023844591</v>
+        <v>0.8723446855816874</v>
       </c>
       <c r="P3">
-        <v>1.036054303580423</v>
+        <v>0.9370208351702841</v>
       </c>
       <c r="Q3">
-        <v>29.26280869103021</v>
+        <v>21.51178856867009</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-100.0510163395943</v>
       </c>
       <c r="S3">
-        <v>141.4081155808164</v>
+        <v>149.0210852516981</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7221,58 +7221,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.245201051167219</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.367687710936925</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.181511502797519</v>
       </c>
       <c r="E4">
-        <v>14.37834324173198</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15.79269736153553</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.64291968381574</v>
       </c>
       <c r="H4">
-        <v>3.76376745482967</v>
+        <v>3.763767454829633</v>
       </c>
       <c r="I4">
-        <v>2.348036266670468</v>
+        <v>2.348036266670654</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687921</v>
+        <v>0.6277319163570091</v>
       </c>
       <c r="K4">
-        <v>2.898438697960034</v>
+        <v>2.89843869794818</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640369</v>
+        <v>0.6277319163638716</v>
       </c>
       <c r="M4">
-        <v>2.898438697959963</v>
+        <v>2.898438697960012</v>
       </c>
       <c r="N4">
-        <v>0.9154220783956216</v>
+        <v>1.007909850061568</v>
       </c>
       <c r="O4">
-        <v>1.100000023844319</v>
+        <v>0.8020156209384901</v>
       </c>
       <c r="P4">
-        <v>1.016210418329701</v>
+        <v>0.92652609797394</v>
       </c>
       <c r="Q4">
-        <v>30.2746771388187</v>
+        <v>20.15577503365077</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-99.52967390013436</v>
       </c>
       <c r="S4">
-        <v>141.074562026826</v>
+        <v>151.3909791108389</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7280,58 +7280,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.119863227965394</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.286962835605532</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.080740256403632</v>
       </c>
       <c r="E5">
-        <v>12.93106672242767</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14.86056679147797</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.47931355917404</v>
       </c>
       <c r="H5">
-        <v>6.241857277659228</v>
+        <v>6.24185727765917</v>
       </c>
       <c r="I5">
-        <v>3.316292621791102</v>
+        <v>3.316292621791288</v>
       </c>
       <c r="J5">
-        <v>0.9743985901653894</v>
+        <v>0.9743985902534733</v>
       </c>
       <c r="K5">
-        <v>3.291772033564897</v>
+        <v>3.291772033553012</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605997</v>
+        <v>0.9743985902603528</v>
       </c>
       <c r="M5">
-        <v>3.291772033564859</v>
+        <v>3.291772033564909</v>
       </c>
       <c r="N5">
-        <v>0.9082182492931202</v>
+        <v>0.9965895262864594</v>
       </c>
       <c r="O5">
-        <v>1.100000023844148</v>
+        <v>0.761079236389861</v>
       </c>
       <c r="P5">
-        <v>1.006672142415852</v>
+        <v>0.9208309063949832</v>
       </c>
       <c r="Q5">
-        <v>30.74556405508114</v>
+        <v>19.30229108876318</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999632</v>
+        <v>-99.226445685717</v>
       </c>
       <c r="S5">
-        <v>140.8404969738619</v>
+        <v>152.7371614114739</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7339,58 +7339,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.119863227965394</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.286962835605533</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.080740256403632</v>
       </c>
       <c r="E6">
-        <v>12.93106672242767</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>14.86056679147797</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>12.47931355917404</v>
       </c>
       <c r="H6">
-        <v>6.241857277659228</v>
+        <v>6.241857277659169</v>
       </c>
       <c r="I6">
-        <v>3.316292621791101</v>
+        <v>3.316292621791288</v>
       </c>
       <c r="J6">
-        <v>0.9743985901653883</v>
+        <v>0.9743985902534743</v>
       </c>
       <c r="K6">
-        <v>3.291772033564897</v>
+        <v>3.291772033553014</v>
       </c>
       <c r="L6">
-        <v>0.9743985902605973</v>
+        <v>0.9743985902603555</v>
       </c>
       <c r="M6">
-        <v>3.29177203356486</v>
+        <v>3.291772033564908</v>
       </c>
       <c r="N6">
-        <v>0.90821824929312</v>
+        <v>0.9965895262864596</v>
       </c>
       <c r="O6">
-        <v>1.100000023844148</v>
+        <v>0.7610792363898611</v>
       </c>
       <c r="P6">
-        <v>1.006672142415852</v>
+        <v>0.920830906394983</v>
       </c>
       <c r="Q6">
-        <v>30.74556405508114</v>
+        <v>19.30229108876319</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999632</v>
+        <v>-99.22644568571701</v>
       </c>
       <c r="S6">
-        <v>140.8404969738619</v>
+        <v>152.7371614114739</v>
       </c>
     </row>
   </sheetData>
@@ -7470,58 +7470,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.624788622047593</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.622196780720851</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.620574524552952</v>
       </c>
       <c r="E2">
-        <v>230.2049955364137</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>230.0403915047677</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>229.9373644008923</v>
       </c>
       <c r="H2">
-        <v>1.302728497187147</v>
+        <v>1.302728497187092</v>
       </c>
       <c r="I2">
-        <v>13.1359615531714</v>
+        <v>13.1359615531725</v>
       </c>
       <c r="J2">
-        <v>1.324394473163969</v>
+        <v>1.324394474185782</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578182</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6910524894908779</v>
+        <v>0.8370263417153535</v>
       </c>
       <c r="O2">
-        <v>1.100000023874118</v>
+        <v>0.4028253111899538</v>
       </c>
       <c r="P2">
-        <v>0.8375887688093604</v>
+        <v>0.691207680054002</v>
       </c>
       <c r="Q2">
-        <v>40.43226936571288</v>
+        <v>8.945332824294125</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999652</v>
+        <v>-115.880758596451</v>
       </c>
       <c r="S2">
-        <v>128.9031471294005</v>
+        <v>160.3642634360259</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7529,58 +7529,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.490691422672488</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.500462822820001</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.418460210995387</v>
       </c>
       <c r="E3">
-        <v>17.21302188317254</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17.32585229328307</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>16.3789676930592</v>
       </c>
       <c r="H3">
-        <v>0.04239312320553314</v>
+        <v>0.04239312320552853</v>
       </c>
       <c r="I3">
-        <v>0.8920439864268153</v>
+        <v>0.8920439864270003</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178677</v>
+        <v>0.1077319054063851</v>
       </c>
       <c r="K3">
-        <v>2.308438694642952</v>
+        <v>2.308438694631208</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132356</v>
+        <v>0.1077319054131877</v>
       </c>
       <c r="M3">
-        <v>2.308438694642831</v>
+        <v>2.308438694642881</v>
       </c>
       <c r="N3">
-        <v>0.9282456356847606</v>
+        <v>1.027156641749398</v>
       </c>
       <c r="O3">
-        <v>1.100000023844591</v>
+        <v>0.8723446855816874</v>
       </c>
       <c r="P3">
-        <v>1.036054303580423</v>
+        <v>0.9370208351702841</v>
       </c>
       <c r="Q3">
-        <v>29.26280869103021</v>
+        <v>21.51178856867009</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-100.0510163395943</v>
       </c>
       <c r="S3">
-        <v>141.4081155808164</v>
+        <v>149.0210852516981</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7588,58 +7588,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.245201051167219</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.367687710936925</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.181511502797519</v>
       </c>
       <c r="E4">
-        <v>14.37834324173198</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15.79269736153553</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.64291968381574</v>
       </c>
       <c r="H4">
-        <v>3.76376745482967</v>
+        <v>3.763767454829633</v>
       </c>
       <c r="I4">
-        <v>2.348036266670468</v>
+        <v>2.348036266670654</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687921</v>
+        <v>0.6277319163570091</v>
       </c>
       <c r="K4">
-        <v>2.898438697960034</v>
+        <v>2.89843869794818</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640369</v>
+        <v>0.6277319163638716</v>
       </c>
       <c r="M4">
-        <v>2.898438697959963</v>
+        <v>2.898438697960012</v>
       </c>
       <c r="N4">
-        <v>0.9154220783956216</v>
+        <v>1.007909850061568</v>
       </c>
       <c r="O4">
-        <v>1.100000023844319</v>
+        <v>0.8020156209384901</v>
       </c>
       <c r="P4">
-        <v>1.016210418329701</v>
+        <v>0.92652609797394</v>
       </c>
       <c r="Q4">
-        <v>30.2746771388187</v>
+        <v>20.15577503365077</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-99.52967390013436</v>
       </c>
       <c r="S4">
-        <v>141.074562026826</v>
+        <v>151.3909791108389</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7647,58 +7647,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.119863227965394</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.286962835605532</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.080740256403632</v>
       </c>
       <c r="E5">
-        <v>12.93106672242767</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14.86056679147797</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.47931355917404</v>
       </c>
       <c r="H5">
-        <v>6.241857277659228</v>
+        <v>6.24185727765917</v>
       </c>
       <c r="I5">
-        <v>3.316292621791102</v>
+        <v>3.316292621791288</v>
       </c>
       <c r="J5">
-        <v>0.9743985901653894</v>
+        <v>0.9743985902534733</v>
       </c>
       <c r="K5">
-        <v>3.291772033564897</v>
+        <v>3.291772033553012</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605997</v>
+        <v>0.9743985902603528</v>
       </c>
       <c r="M5">
-        <v>3.291772033564859</v>
+        <v>3.291772033564909</v>
       </c>
       <c r="N5">
-        <v>0.9082182492931202</v>
+        <v>0.9965895262864594</v>
       </c>
       <c r="O5">
-        <v>1.100000023844148</v>
+        <v>0.761079236389861</v>
       </c>
       <c r="P5">
-        <v>1.006672142415852</v>
+        <v>0.9208309063949832</v>
       </c>
       <c r="Q5">
-        <v>30.74556405508114</v>
+        <v>19.30229108876318</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999632</v>
+        <v>-99.226445685717</v>
       </c>
       <c r="S5">
-        <v>140.8404969738619</v>
+        <v>152.7371614114739</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7706,58 +7706,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.119863227965394</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.286962835605533</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.080740256403632</v>
       </c>
       <c r="E6">
-        <v>12.93106672242767</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>14.86056679147797</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>12.47931355917404</v>
       </c>
       <c r="H6">
-        <v>6.241857277659228</v>
+        <v>6.241857277659169</v>
       </c>
       <c r="I6">
-        <v>3.316292621791101</v>
+        <v>3.316292621791288</v>
       </c>
       <c r="J6">
-        <v>0.9743985901653883</v>
+        <v>0.9743985902534743</v>
       </c>
       <c r="K6">
-        <v>3.291772033564897</v>
+        <v>3.291772033553014</v>
       </c>
       <c r="L6">
-        <v>0.9743985902605973</v>
+        <v>0.9743985902603555</v>
       </c>
       <c r="M6">
-        <v>3.29177203356486</v>
+        <v>3.291772033564908</v>
       </c>
       <c r="N6">
-        <v>0.90821824929312</v>
+        <v>0.9965895262864596</v>
       </c>
       <c r="O6">
-        <v>1.100000023844148</v>
+        <v>0.7610792363898611</v>
       </c>
       <c r="P6">
-        <v>1.006672142415852</v>
+        <v>0.920830906394983</v>
       </c>
       <c r="Q6">
-        <v>30.74556405508114</v>
+        <v>19.30229108876319</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999632</v>
+        <v>-99.22644568571701</v>
       </c>
       <c r="S6">
-        <v>140.8404969738619</v>
+        <v>152.7371614114739</v>
       </c>
     </row>
   </sheetData>
@@ -7837,58 +7837,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.212032512893233</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.204384259627432</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.206630976450862</v>
       </c>
       <c r="E2">
-        <v>267.49999156698</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>267.0142622479776</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>267.1569479298856</v>
       </c>
       <c r="H2">
-        <v>1.477132224444819</v>
+        <v>1.477132224444758</v>
       </c>
       <c r="I2">
-        <v>14.91066385932532</v>
+        <v>14.91066385932656</v>
       </c>
       <c r="J2">
-        <v>1.504993722648783</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695433</v>
+        <v>1.504993720695303</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229333</v>
       </c>
       <c r="N2">
-        <v>0.5766042955957441</v>
+        <v>0.5755405427385627</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962969</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5762963374228088</v>
+        <v>0.5755405427175678</v>
       </c>
       <c r="Q2">
-        <v>60.16407642166423</v>
+        <v>0.01778356540110691</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.8534853827561</v>
+        <v>-179.9822164351396</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7896,58 +7896,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.97157384539733</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5.745794206822681</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5.740103653389149</v>
       </c>
       <c r="E3">
-        <v>68.95379534251755</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>66.34671664034535</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>66.2810077892116</v>
       </c>
       <c r="H3">
-        <v>0.04805503825642135</v>
+        <v>0.04805503825641616</v>
       </c>
       <c r="I3">
-        <v>0.9614893340929489</v>
+        <v>0.9614893340931525</v>
       </c>
       <c r="J3">
-        <v>0.115351859490955</v>
+        <v>0.1153518594949959</v>
       </c>
       <c r="K3">
-        <v>2.416397540675819</v>
+        <v>2.416397540717266</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711422</v>
+        <v>0.1153518594710882</v>
       </c>
       <c r="M3">
-        <v>2.41639754067569</v>
+        <v>2.416397540675742</v>
       </c>
       <c r="N3">
-        <v>0.5199875443305872</v>
+        <v>0.3837995827565153</v>
       </c>
       <c r="O3">
-        <v>1.000000000006553</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5205030431981903</v>
+        <v>0.3837995827468358</v>
       </c>
       <c r="Q3">
-        <v>73.95517106948729</v>
+        <v>-0.07137942505300529</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999599</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>106.028510192134</v>
+        <v>179.9286205741262</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7955,58 +7955,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.74817276872755</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.872505622973571</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.541826336173468</v>
       </c>
       <c r="E4">
-        <v>31.733165756089</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>44.71584327724262</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>29.35048238846064</v>
       </c>
       <c r="H4">
-        <v>7.193732704939343</v>
+        <v>7.193732704939277</v>
       </c>
       <c r="I4">
-        <v>2.361514783876803</v>
+        <v>2.361514783877013</v>
       </c>
       <c r="J4">
-        <v>1.11375188025313</v>
+        <v>1.113751880257012</v>
       </c>
       <c r="K4">
-        <v>3.006397543745559</v>
+        <v>3.006397543787044</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880233081</v>
       </c>
       <c r="M4">
-        <v>3.006397543745526</v>
+        <v>3.006397543745578</v>
       </c>
       <c r="N4">
-        <v>0.5599195007887739</v>
+        <v>0.7571028330123767</v>
       </c>
       <c r="O4">
-        <v>1.000000000000872</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8530446727841295</v>
+        <v>0.7571028330124503</v>
       </c>
       <c r="Q4">
-        <v>31.54263638696132</v>
+        <v>-8.328724856354359</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999629</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>124.0142189298934</v>
+        <v>171.6712751432005</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8014,58 +8014,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.87222321025526</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.056530518126802</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.24299034484626</v>
       </c>
       <c r="E5">
-        <v>21.61857148847879</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>35.29377434853632</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>25.8998215877344</v>
       </c>
       <c r="H5">
-        <v>11.95153542848486</v>
+        <v>11.95153542848476</v>
       </c>
       <c r="I5">
-        <v>3.28909915871419</v>
+        <v>3.289099158714406</v>
       </c>
       <c r="J5">
-        <v>1.779351894012612</v>
+        <v>1.779351894016358</v>
       </c>
       <c r="K5">
-        <v>3.399730879243815</v>
+        <v>3.399730879285311</v>
       </c>
       <c r="L5">
-        <v>1.779351893992853</v>
+        <v>1.779351893992423</v>
       </c>
       <c r="M5">
-        <v>3.39973087924385</v>
+        <v>3.3997308792439</v>
       </c>
       <c r="N5">
-        <v>0.6408314607524357</v>
+        <v>0.7792462130273656</v>
       </c>
       <c r="O5">
-        <v>1.000000000000246</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8732631958338907</v>
+        <v>0.7792462130277941</v>
       </c>
       <c r="Q5">
-        <v>30.3746914538796</v>
+        <v>-5.84467795562561</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999616</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>129.279728539824</v>
+        <v>174.1553220439202</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8073,58 +8073,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.87222321025526</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.056530518126803</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.242990344846261</v>
       </c>
       <c r="E6">
-        <v>21.61857148847879</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>35.29377434853632</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>25.8998215877344</v>
       </c>
       <c r="H6">
-        <v>11.95153542848486</v>
+        <v>11.95153542848475</v>
       </c>
       <c r="I6">
-        <v>3.289099158714198</v>
+        <v>3.289099158714409</v>
       </c>
       <c r="J6">
-        <v>1.779351894012611</v>
+        <v>1.779351894016358</v>
       </c>
       <c r="K6">
-        <v>3.399730879243816</v>
+        <v>3.399730879285313</v>
       </c>
       <c r="L6">
-        <v>1.779351893992852</v>
+        <v>1.779351893992422</v>
       </c>
       <c r="M6">
-        <v>3.399730879243851</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="N6">
-        <v>0.6408314607524356</v>
+        <v>0.7792462130273656</v>
       </c>
       <c r="O6">
-        <v>1.000000000000246</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8732631958338906</v>
+        <v>0.7792462130277941</v>
       </c>
       <c r="Q6">
-        <v>30.37469145387961</v>
+        <v>-5.844677955625632</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999615</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>129.279728539824</v>
+        <v>174.1553220439202</v>
       </c>
     </row>
   </sheetData>
@@ -8355,58 +8355,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.212032512893233</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.204384259627432</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.206630976450862</v>
       </c>
       <c r="E2">
-        <v>267.49999156698</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>267.0142622479776</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>267.1569479298856</v>
       </c>
       <c r="H2">
-        <v>1.477132224444819</v>
+        <v>1.477132224444758</v>
       </c>
       <c r="I2">
-        <v>14.91066385932532</v>
+        <v>14.91066385932656</v>
       </c>
       <c r="J2">
-        <v>1.504993722648783</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695433</v>
+        <v>1.504993720695303</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229333</v>
       </c>
       <c r="N2">
-        <v>0.5766042955957441</v>
+        <v>0.5755405427385627</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962969</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5762963374228088</v>
+        <v>0.5755405427175678</v>
       </c>
       <c r="Q2">
-        <v>60.16407642166423</v>
+        <v>0.01778356540110691</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.8534853827561</v>
+        <v>-179.9822164351396</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8414,58 +8414,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.97157384539733</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5.745794206822681</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5.740103653389149</v>
       </c>
       <c r="E3">
-        <v>68.95379534251755</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>66.34671664034535</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>66.2810077892116</v>
       </c>
       <c r="H3">
-        <v>0.04805503825642135</v>
+        <v>0.04805503825641616</v>
       </c>
       <c r="I3">
-        <v>0.9614893340929489</v>
+        <v>0.9614893340931525</v>
       </c>
       <c r="J3">
-        <v>0.115351859490955</v>
+        <v>0.1153518594949959</v>
       </c>
       <c r="K3">
-        <v>2.416397540675819</v>
+        <v>2.416397540717266</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711422</v>
+        <v>0.1153518594710882</v>
       </c>
       <c r="M3">
-        <v>2.41639754067569</v>
+        <v>2.416397540675742</v>
       </c>
       <c r="N3">
-        <v>0.5199875443305872</v>
+        <v>0.3837995827565153</v>
       </c>
       <c r="O3">
-        <v>1.000000000006553</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5205030431981903</v>
+        <v>0.3837995827468358</v>
       </c>
       <c r="Q3">
-        <v>73.95517106948729</v>
+        <v>-0.07137942505300529</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999599</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>106.028510192134</v>
+        <v>179.9286205741262</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8473,58 +8473,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.74817276872755</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.872505622973571</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.541826336173468</v>
       </c>
       <c r="E4">
-        <v>31.733165756089</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>44.71584327724262</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>29.35048238846064</v>
       </c>
       <c r="H4">
-        <v>7.193732704939343</v>
+        <v>7.193732704939277</v>
       </c>
       <c r="I4">
-        <v>2.361514783876803</v>
+        <v>2.361514783877013</v>
       </c>
       <c r="J4">
-        <v>1.11375188025313</v>
+        <v>1.113751880257012</v>
       </c>
       <c r="K4">
-        <v>3.006397543745559</v>
+        <v>3.006397543787044</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880233081</v>
       </c>
       <c r="M4">
-        <v>3.006397543745526</v>
+        <v>3.006397543745578</v>
       </c>
       <c r="N4">
-        <v>0.5599195007887739</v>
+        <v>0.7571028330123767</v>
       </c>
       <c r="O4">
-        <v>1.000000000000872</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8530446727841295</v>
+        <v>0.7571028330124503</v>
       </c>
       <c r="Q4">
-        <v>31.54263638696132</v>
+        <v>-8.328724856354359</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999629</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>124.0142189298934</v>
+        <v>171.6712751432005</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8532,58 +8532,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.87222321025526</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.056530518126802</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.24299034484626</v>
       </c>
       <c r="E5">
-        <v>21.61857148847879</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>35.29377434853632</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>25.8998215877344</v>
       </c>
       <c r="H5">
-        <v>11.95153542848486</v>
+        <v>11.95153542848476</v>
       </c>
       <c r="I5">
-        <v>3.28909915871419</v>
+        <v>3.289099158714406</v>
       </c>
       <c r="J5">
-        <v>1.779351894012612</v>
+        <v>1.779351894016358</v>
       </c>
       <c r="K5">
-        <v>3.399730879243815</v>
+        <v>3.399730879285311</v>
       </c>
       <c r="L5">
-        <v>1.779351893992853</v>
+        <v>1.779351893992423</v>
       </c>
       <c r="M5">
-        <v>3.39973087924385</v>
+        <v>3.3997308792439</v>
       </c>
       <c r="N5">
-        <v>0.6408314607524357</v>
+        <v>0.7792462130273656</v>
       </c>
       <c r="O5">
-        <v>1.000000000000246</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8732631958338907</v>
+        <v>0.7792462130277941</v>
       </c>
       <c r="Q5">
-        <v>30.3746914538796</v>
+        <v>-5.84467795562561</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999616</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>129.279728539824</v>
+        <v>174.1553220439202</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8591,58 +8591,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.87222321025526</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.056530518126803</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.242990344846261</v>
       </c>
       <c r="E6">
-        <v>21.61857148847879</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>35.29377434853632</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>25.8998215877344</v>
       </c>
       <c r="H6">
-        <v>11.95153542848486</v>
+        <v>11.95153542848475</v>
       </c>
       <c r="I6">
-        <v>3.289099158714198</v>
+        <v>3.289099158714409</v>
       </c>
       <c r="J6">
-        <v>1.779351894012611</v>
+        <v>1.779351894016358</v>
       </c>
       <c r="K6">
-        <v>3.399730879243816</v>
+        <v>3.399730879285313</v>
       </c>
       <c r="L6">
-        <v>1.779351893992852</v>
+        <v>1.779351893992422</v>
       </c>
       <c r="M6">
-        <v>3.399730879243851</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="N6">
-        <v>0.6408314607524356</v>
+        <v>0.7792462130273656</v>
       </c>
       <c r="O6">
-        <v>1.000000000000246</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8732631958338906</v>
+        <v>0.7792462130277941</v>
       </c>
       <c r="Q6">
-        <v>30.37469145387961</v>
+        <v>-5.844677955625632</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999615</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>129.279728539824</v>
+        <v>174.1553220439202</v>
       </c>
     </row>
   </sheetData>
@@ -8722,58 +8722,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.019649548546143</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.016979709350076</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.015609147514251</v>
       </c>
       <c r="E2">
-        <v>191.7735027682592</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>191.6039452066196</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>191.5169028396856</v>
       </c>
       <c r="H2">
-        <v>1.477132224444819</v>
+        <v>1.477132224444758</v>
       </c>
       <c r="I2">
-        <v>14.91066385932532</v>
+        <v>14.91066385932656</v>
       </c>
       <c r="J2">
-        <v>1.504993722648783</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695433</v>
+        <v>1.504993720695303</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229333</v>
       </c>
       <c r="N2">
-        <v>0.6175673670508008</v>
+        <v>0.7463818174272806</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908362</v>
+        <v>0.3354590831689802</v>
       </c>
       <c r="P2">
-        <v>0.7469940856229431</v>
+        <v>0.6176823562862077</v>
       </c>
       <c r="Q2">
-        <v>41.80820715816542</v>
+        <v>8.095655125584305</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999652</v>
+        <v>-117.0248837768021</v>
       </c>
       <c r="S2">
-        <v>128.0415939455684</v>
+        <v>161.7222372450655</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8781,58 +8781,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.342470622519292</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.351080255599718</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.276571043403532</v>
       </c>
       <c r="E3">
-        <v>15.50151550581355</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15.60093098534571</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.74057271097421</v>
       </c>
       <c r="H3">
-        <v>0.04805503825642135</v>
+        <v>0.04805503825641616</v>
       </c>
       <c r="I3">
-        <v>0.9614893340929489</v>
+        <v>0.9614893340931525</v>
       </c>
       <c r="J3">
-        <v>0.115351859490955</v>
+        <v>0.1153518594949959</v>
       </c>
       <c r="K3">
-        <v>2.416397540675819</v>
+        <v>2.416397540717266</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711422</v>
+        <v>0.1153518594710882</v>
       </c>
       <c r="M3">
-        <v>2.41639754067569</v>
+        <v>2.416397540675742</v>
       </c>
       <c r="N3">
-        <v>0.8379950716203171</v>
+        <v>0.9305424391900117</v>
       </c>
       <c r="O3">
-        <v>1.000000000000764</v>
+        <v>0.784852101413924</v>
       </c>
       <c r="P3">
-        <v>0.9390599239777049</v>
+        <v>0.8463559336115191</v>
       </c>
       <c r="Q3">
-        <v>29.30792029102571</v>
+        <v>21.20506830981838</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999645</v>
+        <v>-100.4045966787053</v>
       </c>
       <c r="S3">
-        <v>141.0918491689127</v>
+        <v>149.0428370113121</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8840,58 +8840,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.024740802367924</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.200428213411252</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.9718342163060487</v>
       </c>
       <c r="E4">
-        <v>11.83268756193429</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13.86135104311616</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>11.22177492783972</v>
       </c>
       <c r="H4">
-        <v>7.193732704939343</v>
+        <v>7.193732704939277</v>
       </c>
       <c r="I4">
-        <v>2.361514783876803</v>
+        <v>2.361514783877013</v>
       </c>
       <c r="J4">
-        <v>1.11375188025313</v>
+        <v>1.113751880257012</v>
       </c>
       <c r="K4">
-        <v>3.006397543745559</v>
+        <v>3.006397543787044</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880233081</v>
       </c>
       <c r="M4">
-        <v>3.006397543745526</v>
+        <v>3.006397543745578</v>
       </c>
       <c r="N4">
-        <v>0.8362268383894174</v>
+        <v>0.9054589484767289</v>
       </c>
       <c r="O4">
-        <v>1.000000000000371</v>
+        <v>0.7019303077931052</v>
       </c>
       <c r="P4">
-        <v>0.918107640054168</v>
+        <v>0.8514942418922238</v>
       </c>
       <c r="Q4">
-        <v>30.79943024266928</v>
+        <v>19.89479362818984</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999632</v>
+        <v>-97.63434507043141</v>
       </c>
       <c r="S4">
-        <v>141.4770536805405</v>
+        <v>152.9232597311816</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8899,58 +8899,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8769707240428686</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.102175546000733</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.874644674764108</v>
       </c>
       <c r="E5">
-        <v>10.12638567195142</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.72682696355492</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.09952676840661</v>
       </c>
       <c r="H5">
-        <v>11.95153542848486</v>
+        <v>11.95153542848476</v>
       </c>
       <c r="I5">
-        <v>3.28909915871419</v>
+        <v>3.289099158714406</v>
       </c>
       <c r="J5">
-        <v>1.779351894012612</v>
+        <v>1.779351894016358</v>
       </c>
       <c r="K5">
-        <v>3.399730879243815</v>
+        <v>3.399730879285311</v>
       </c>
       <c r="L5">
-        <v>1.779351893992853</v>
+        <v>1.779351893992423</v>
       </c>
       <c r="M5">
-        <v>3.39973087924385</v>
+        <v>3.3997308792439</v>
       </c>
       <c r="N5">
-        <v>0.8332746221838924</v>
+        <v>0.8896165412108605</v>
       </c>
       <c r="O5">
-        <v>1.000000000000236</v>
+        <v>0.6550793552705578</v>
       </c>
       <c r="P5">
-        <v>0.9085834169431387</v>
+        <v>0.8519162036884855</v>
       </c>
       <c r="Q5">
-        <v>31.42153392358027</v>
+        <v>19.02649055485134</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>-96.09329345653539</v>
       </c>
       <c r="S5">
-        <v>141.5014391686906</v>
+        <v>154.901756168165</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8958,58 +8958,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8769707240428687</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.102175546000734</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.8746446747641081</v>
       </c>
       <c r="E6">
-        <v>10.12638567195143</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>12.72682696355493</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10.09952676840661</v>
       </c>
       <c r="H6">
-        <v>11.95153542848486</v>
+        <v>11.95153542848475</v>
       </c>
       <c r="I6">
-        <v>3.289099158714198</v>
+        <v>3.289099158714409</v>
       </c>
       <c r="J6">
-        <v>1.779351894012611</v>
+        <v>1.779351894016358</v>
       </c>
       <c r="K6">
-        <v>3.399730879243816</v>
+        <v>3.399730879285313</v>
       </c>
       <c r="L6">
-        <v>1.779351893992852</v>
+        <v>1.779351893992422</v>
       </c>
       <c r="M6">
-        <v>3.399730879243851</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="N6">
-        <v>0.8332746221838924</v>
+        <v>0.8896165412108603</v>
       </c>
       <c r="O6">
-        <v>1.000000000000236</v>
+        <v>0.6550793552705577</v>
       </c>
       <c r="P6">
-        <v>0.9085834169431386</v>
+        <v>0.8519162036884854</v>
       </c>
       <c r="Q6">
-        <v>31.42153392358027</v>
+        <v>19.02649055485133</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>-96.09329345653539</v>
       </c>
       <c r="S6">
-        <v>141.5014391686906</v>
+        <v>154.901756168165</v>
       </c>
     </row>
   </sheetData>
@@ -9089,58 +9089,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.019649548546143</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.016979709350076</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.015609147514251</v>
       </c>
       <c r="E2">
-        <v>191.7735027682592</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>191.6039452066196</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>191.5169028396856</v>
       </c>
       <c r="H2">
-        <v>1.477132224444819</v>
+        <v>1.477132224444758</v>
       </c>
       <c r="I2">
-        <v>14.91066385932532</v>
+        <v>14.91066385932656</v>
       </c>
       <c r="J2">
-        <v>1.504993722648783</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695433</v>
+        <v>1.504993720695303</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229333</v>
       </c>
       <c r="N2">
-        <v>0.6175673670508008</v>
+        <v>0.7463818174272806</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908362</v>
+        <v>0.3354590831689802</v>
       </c>
       <c r="P2">
-        <v>0.7469940856229431</v>
+        <v>0.6176823562862077</v>
       </c>
       <c r="Q2">
-        <v>41.80820715816542</v>
+        <v>8.095655125584305</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999652</v>
+        <v>-117.0248837768021</v>
       </c>
       <c r="S2">
-        <v>128.0415939455684</v>
+        <v>161.7222372450655</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9148,58 +9148,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.342470622519292</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.351080255599718</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.276571043403532</v>
       </c>
       <c r="E3">
-        <v>15.50151550581355</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15.60093098534571</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.74057271097421</v>
       </c>
       <c r="H3">
-        <v>0.04805503825642135</v>
+        <v>0.04805503825641616</v>
       </c>
       <c r="I3">
-        <v>0.9614893340929489</v>
+        <v>0.9614893340931525</v>
       </c>
       <c r="J3">
-        <v>0.115351859490955</v>
+        <v>0.1153518594949959</v>
       </c>
       <c r="K3">
-        <v>2.416397540675819</v>
+        <v>2.416397540717266</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711422</v>
+        <v>0.1153518594710882</v>
       </c>
       <c r="M3">
-        <v>2.41639754067569</v>
+        <v>2.416397540675742</v>
       </c>
       <c r="N3">
-        <v>0.8379950716203171</v>
+        <v>0.9305424391900117</v>
       </c>
       <c r="O3">
-        <v>1.000000000000764</v>
+        <v>0.784852101413924</v>
       </c>
       <c r="P3">
-        <v>0.9390599239777049</v>
+        <v>0.8463559336115191</v>
       </c>
       <c r="Q3">
-        <v>29.30792029102571</v>
+        <v>21.20506830981838</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999645</v>
+        <v>-100.4045966787053</v>
       </c>
       <c r="S3">
-        <v>141.0918491689127</v>
+        <v>149.0428370113121</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9207,58 +9207,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.024740802367924</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.200428213411252</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.9718342163060487</v>
       </c>
       <c r="E4">
-        <v>11.83268756193429</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13.86135104311616</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>11.22177492783972</v>
       </c>
       <c r="H4">
-        <v>7.193732704939343</v>
+        <v>7.193732704939277</v>
       </c>
       <c r="I4">
-        <v>2.361514783876803</v>
+        <v>2.361514783877013</v>
       </c>
       <c r="J4">
-        <v>1.11375188025313</v>
+        <v>1.113751880257012</v>
       </c>
       <c r="K4">
-        <v>3.006397543745559</v>
+        <v>3.006397543787044</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880233081</v>
       </c>
       <c r="M4">
-        <v>3.006397543745526</v>
+        <v>3.006397543745578</v>
       </c>
       <c r="N4">
-        <v>0.8362268383894174</v>
+        <v>0.9054589484767289</v>
       </c>
       <c r="O4">
-        <v>1.000000000000371</v>
+        <v>0.7019303077931052</v>
       </c>
       <c r="P4">
-        <v>0.918107640054168</v>
+        <v>0.8514942418922238</v>
       </c>
       <c r="Q4">
-        <v>30.79943024266928</v>
+        <v>19.89479362818984</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999632</v>
+        <v>-97.63434507043141</v>
       </c>
       <c r="S4">
-        <v>141.4770536805405</v>
+        <v>152.9232597311816</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9266,58 +9266,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8769707240428686</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.102175546000733</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.874644674764108</v>
       </c>
       <c r="E5">
-        <v>10.12638567195142</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.72682696355492</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.09952676840661</v>
       </c>
       <c r="H5">
-        <v>11.95153542848486</v>
+        <v>11.95153542848476</v>
       </c>
       <c r="I5">
-        <v>3.28909915871419</v>
+        <v>3.289099158714406</v>
       </c>
       <c r="J5">
-        <v>1.779351894012612</v>
+        <v>1.779351894016358</v>
       </c>
       <c r="K5">
-        <v>3.399730879243815</v>
+        <v>3.399730879285311</v>
       </c>
       <c r="L5">
-        <v>1.779351893992853</v>
+        <v>1.779351893992423</v>
       </c>
       <c r="M5">
-        <v>3.39973087924385</v>
+        <v>3.3997308792439</v>
       </c>
       <c r="N5">
-        <v>0.8332746221838924</v>
+        <v>0.8896165412108605</v>
       </c>
       <c r="O5">
-        <v>1.000000000000236</v>
+        <v>0.6550793552705578</v>
       </c>
       <c r="P5">
-        <v>0.9085834169431387</v>
+        <v>0.8519162036884855</v>
       </c>
       <c r="Q5">
-        <v>31.42153392358027</v>
+        <v>19.02649055485134</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>-96.09329345653539</v>
       </c>
       <c r="S5">
-        <v>141.5014391686906</v>
+        <v>154.901756168165</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9325,58 +9325,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8769707240428687</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.102175546000734</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.8746446747641081</v>
       </c>
       <c r="E6">
-        <v>10.12638567195143</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>12.72682696355493</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10.09952676840661</v>
       </c>
       <c r="H6">
-        <v>11.95153542848486</v>
+        <v>11.95153542848475</v>
       </c>
       <c r="I6">
-        <v>3.289099158714198</v>
+        <v>3.289099158714409</v>
       </c>
       <c r="J6">
-        <v>1.779351894012611</v>
+        <v>1.779351894016358</v>
       </c>
       <c r="K6">
-        <v>3.399730879243816</v>
+        <v>3.399730879285313</v>
       </c>
       <c r="L6">
-        <v>1.779351893992852</v>
+        <v>1.779351893992422</v>
       </c>
       <c r="M6">
-        <v>3.399730879243851</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="N6">
-        <v>0.8332746221838924</v>
+        <v>0.8896165412108603</v>
       </c>
       <c r="O6">
-        <v>1.000000000000236</v>
+        <v>0.6550793552705577</v>
       </c>
       <c r="P6">
-        <v>0.9085834169431386</v>
+        <v>0.8519162036884854</v>
       </c>
       <c r="Q6">
-        <v>31.42153392358027</v>
+        <v>19.02649055485133</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>-96.09329345653539</v>
       </c>
       <c r="S6">
-        <v>141.5014391686906</v>
+        <v>154.901756168165</v>
       </c>
     </row>
   </sheetData>
